--- a/S3/Decisions&Uncertainty.xlsx
+++ b/S3/Decisions&Uncertainty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurmorris/ACCT3210/S3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{269710F6-1FF7-3C48-A7C4-D85CB311AD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E01FBC-881F-4A4A-AFD9-941216C9C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CVP" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="136">
   <si>
     <t>What is contribution margin? Why do we care?</t>
   </si>
@@ -251,15 +251,257 @@
   <si>
     <t>Target rev for GMAT</t>
   </si>
+  <si>
+    <t>GMAT Prep Business:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booth rental </t>
+  </si>
+  <si>
+    <t>R/u= P</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GMAT </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success</t>
+    </r>
+  </si>
+  <si>
+    <t>GMAT packs</t>
+  </si>
+  <si>
+    <t>Expected Sales</t>
+  </si>
+  <si>
+    <t>The decision to advertise:</t>
+  </si>
+  <si>
+    <t>Cost to Advertise:</t>
+  </si>
+  <si>
+    <t>Expected sales no Ad</t>
+  </si>
+  <si>
+    <t>Expected sales with Ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales increase </t>
+  </si>
+  <si>
+    <t>Scenarios:</t>
+  </si>
+  <si>
+    <t>No Ad</t>
+  </si>
+  <si>
+    <t>With Ad</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>We can easily find a BE for the Ad.</t>
+  </si>
+  <si>
+    <t>The decision to reduce sale price:</t>
+  </si>
+  <si>
+    <t>New Price (R/u)</t>
+  </si>
+  <si>
+    <t>New Volume</t>
+  </si>
+  <si>
+    <t>New VC/u</t>
+  </si>
+  <si>
+    <t>&lt;-- this vol. gives us a discount</t>
+  </si>
+  <si>
+    <t>Old Price:</t>
+  </si>
+  <si>
+    <t>New Price</t>
+  </si>
+  <si>
+    <t>What if we added the Ad?</t>
+  </si>
+  <si>
+    <t>Volume with add:</t>
+  </si>
+  <si>
+    <t>with Ad</t>
+  </si>
+  <si>
+    <t>Target Pricing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma plans to sell 50 units, at 115, with no add. </t>
+  </si>
+  <si>
+    <t>How much does she need to charge in order to earn 1,200?</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>Target CM</t>
+  </si>
+  <si>
+    <t>TCM/u</t>
+  </si>
+  <si>
+    <t>R/u (Price)</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis and Margin of Safety</t>
+  </si>
+  <si>
+    <t>What if the prices change?</t>
+  </si>
+  <si>
+    <t>Volume required to sell at</t>
+  </si>
+  <si>
+    <t>to Earn these target revenues:</t>
+  </si>
+  <si>
+    <t>shock:</t>
+  </si>
+  <si>
+    <t>Margin of Safety (MOS) is simply the distance to a loss (BE point)</t>
+  </si>
+  <si>
+    <t>MOS_r=R - R_be</t>
+  </si>
+  <si>
+    <t>MOS_u = U - U_be</t>
+  </si>
+  <si>
+    <t>MOS% = MOS_r/R</t>
+  </si>
+  <si>
+    <t>to Earn these target OI:</t>
+  </si>
+  <si>
+    <t>TOI:</t>
+  </si>
+  <si>
+    <t>MOS_r</t>
+  </si>
+  <si>
+    <t>MOS_u</t>
+  </si>
+  <si>
+    <t>MOS%</t>
+  </si>
+  <si>
+    <t>Alternative FC-VC Structures:</t>
+  </si>
+  <si>
+    <t>Three Rental Agreements:</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Booth</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15% of R</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25% of R</t>
+  </si>
+  <si>
+    <t>Option 1:</t>
+  </si>
+  <si>
+    <t>Option 2:</t>
+  </si>
+  <si>
+    <t>Option 3:</t>
+  </si>
+  <si>
+    <t>Revenue required to sell at</t>
+  </si>
+  <si>
+    <t>MOS_u=U_b-U_be</t>
+  </si>
+  <si>
+    <t>MOS_u @ ea. Of the TOI:</t>
+  </si>
+  <si>
+    <t>MOS_r=R_b-R_be</t>
+  </si>
+  <si>
+    <t>MOS_r @ ea. Of the TOI:</t>
+  </si>
+  <si>
+    <t>What if the costs change?</t>
+  </si>
+  <si>
+    <t>Revenue to get TOI:</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>Margin of Safety</t>
+  </si>
+  <si>
+    <t>MOS_u = U_t - U_be</t>
+  </si>
+  <si>
+    <t>What is the MOS_u at each of these TOI?</t>
+  </si>
+  <si>
+    <t>MOS_r=R_t - R_be</t>
+  </si>
+  <si>
+    <t>What is the MOS_r at each of these TOI?</t>
+  </si>
+  <si>
+    <t>MOS% = MOS_r/R_t</t>
+  </si>
+  <si>
+    <t>What is the MOS% at each of these TOI?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,6 +565,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +605,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -413,13 +686,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -429,16 +839,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2843,16 +3299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119529</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14194</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>545353</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>186764</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>261469</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2930,7 +3386,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="23">
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="25">
           <cell r="B25">
@@ -3486,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E9B807-C120-5440-B93C-754B5AB74238}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
@@ -4525,36 +4987,5765 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2BEC5-7E48-9B4F-AE1F-5C5F83C75650}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="23">
+        <v>120</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <f>C2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <f>B10*D9</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <f>$E$5*$B$10</f>
+        <v>8000</v>
+      </c>
+      <c r="C14">
+        <f>$E$5*$B$11</f>
+        <v>8800</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <f>$B$10*$B$5</f>
+        <v>4800</v>
+      </c>
+      <c r="C15" s="4">
+        <f>$B$11*$B$5</f>
+        <v>5280</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15-B15</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>B14-B15</f>
+        <v>3200</v>
+      </c>
+      <c r="C16">
+        <f>C14-C15</f>
+        <v>3520</v>
+      </c>
+      <c r="D16">
+        <f>C16-B16</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <f>$B$4</f>
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <f>$B$4+$B$9</f>
+        <v>2500</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17-B17</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <f>B16-B17</f>
+        <v>1200</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C16-C17</f>
+        <v>1020</v>
+      </c>
+      <c r="D18" s="26">
+        <f>C18-B18</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <f>$E$5*$B$10</f>
+        <v>8000</v>
+      </c>
+      <c r="C29">
+        <f>$B$24*$B$25</f>
+        <v>8750</v>
+      </c>
+      <c r="D29">
+        <f>C29-B29</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4">
+        <f>$B$10*$B$5</f>
+        <v>4800</v>
+      </c>
+      <c r="C30" s="4">
+        <f>$B$25*$B$26</f>
+        <v>5750</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D32" si="0">C30-B30</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="13">
+        <f>B29-B30</f>
+        <v>3200</v>
+      </c>
+      <c r="C31" s="13">
+        <f>C29-C30</f>
+        <v>3000</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4">
+        <f>$B$4</f>
+        <v>2000</v>
+      </c>
+      <c r="C32" s="4">
+        <f>$B$4</f>
+        <v>2000</v>
+      </c>
+      <c r="D32" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <f>B31-B32</f>
+        <v>1200</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:D33" si="1">C31-C32</f>
+        <v>1000</v>
+      </c>
+      <c r="D33" s="29">
+        <f>C33-B33</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <f>D9*B25</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <f>$B$24*$B$25</f>
+        <v>8750</v>
+      </c>
+      <c r="C38">
+        <f>B36*B24</f>
+        <v>9625.0000000000018</v>
+      </c>
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>875.00000000000182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4">
+        <f>$B$25*$B$26</f>
+        <v>5750</v>
+      </c>
+      <c r="C39" s="4">
+        <f>B36*B26</f>
+        <v>6325.0000000000009</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39:D42" si="2">C39-B39</f>
+        <v>575.00000000000091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="13">
+        <f>B38-B39</f>
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <f>C38-C39</f>
+        <v>3300.0000000000009</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4">
+        <f>$B$4</f>
+        <v>2000</v>
+      </c>
+      <c r="C41" s="4">
+        <f>B4+B9</f>
+        <v>2500</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <f>B40-B41</f>
+        <v>1000</v>
+      </c>
+      <c r="C42">
+        <f>C40-C41</f>
+        <v>800.00000000000091</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>-199.99999999999909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <f>SUM(B48:B49)</f>
+        <v>3200</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52">
+        <f>B50/50</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <f>SUM(B52:B53)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="33">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="10">
+        <v>1600</v>
+      </c>
+      <c r="K61" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="27">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2000</v>
+      </c>
+      <c r="B63">
+        <f>B64-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C63" s="25">
+        <f>$F$60-B63</f>
+        <v>100</v>
+      </c>
+      <c r="D63" s="32">
+        <f>($A63+D$62)/$C63</f>
+        <v>20</v>
+      </c>
+      <c r="E63" s="6">
+        <f>($A63+E$62)/$C63</f>
+        <v>32</v>
+      </c>
+      <c r="F63" s="6">
+        <f>($A63+F$62)/$C63</f>
+        <v>36</v>
+      </c>
+      <c r="G63" s="7">
+        <f>($A63+G$62)/$C63</f>
+        <v>40</v>
+      </c>
+      <c r="H63" s="28">
+        <f>$F$60*D63</f>
+        <v>4000</v>
+      </c>
+      <c r="I63" s="28">
+        <f t="shared" ref="I63:K63" si="3">$F$60*E63</f>
+        <v>6400</v>
+      </c>
+      <c r="J63" s="28">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="K63" s="28">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2000</v>
+      </c>
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64" s="25">
+        <f>$F$60-B64</f>
+        <v>80</v>
+      </c>
+      <c r="D64" s="31">
+        <f>($A64+D$62)/$C64</f>
+        <v>25</v>
+      </c>
+      <c r="E64" s="25">
+        <f t="shared" ref="E64:G71" si="4">($A64+E$62)/$C64</f>
+        <v>40</v>
+      </c>
+      <c r="F64" s="25">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H64" s="28">
+        <f t="shared" ref="H64:H71" si="5">$F$60*D64</f>
+        <v>5000</v>
+      </c>
+      <c r="I64" s="28">
+        <f t="shared" ref="I64:I71" si="6">$F$60*E64</f>
+        <v>8000</v>
+      </c>
+      <c r="J64" s="28">
+        <f t="shared" ref="J64:J71" si="7">$F$60*F64</f>
+        <v>9000</v>
+      </c>
+      <c r="K64" s="28">
+        <f t="shared" ref="K64:K71" si="8">$F$60*G64</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B65" s="4">
+        <v>150</v>
+      </c>
+      <c r="C65" s="4">
+        <f>$F$60-B65</f>
+        <v>50</v>
+      </c>
+      <c r="D65" s="27">
+        <f>($A65+D$62)/$C65</f>
+        <v>40</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H65" s="30">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="I65" s="30">
+        <f t="shared" si="6"/>
+        <v>12800</v>
+      </c>
+      <c r="J65" s="30">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="K65" s="30">
+        <f t="shared" si="8"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2400</v>
+      </c>
+      <c r="B66">
+        <f>B67-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C66" s="25">
+        <f>$F$60-B66</f>
+        <v>100</v>
+      </c>
+      <c r="D66" s="32">
+        <f>($A66+D$62)/$C66</f>
+        <v>24</v>
+      </c>
+      <c r="E66" s="6">
+        <f>($A66+E$62)/$C66</f>
+        <v>36</v>
+      </c>
+      <c r="F66" s="6">
+        <f>($A66+F$62)/$C66</f>
+        <v>40</v>
+      </c>
+      <c r="G66" s="7">
+        <f>($A66+G$62)/$C66</f>
+        <v>44</v>
+      </c>
+      <c r="H66" s="28">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="I66" s="28">
+        <f t="shared" si="6"/>
+        <v>7200</v>
+      </c>
+      <c r="J66" s="28">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="K66" s="28">
+        <f t="shared" si="8"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2400</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67" s="25">
+        <f>$F$60-B67</f>
+        <v>80</v>
+      </c>
+      <c r="D67" s="31">
+        <f>($A67+D$62)/$C67</f>
+        <v>30</v>
+      </c>
+      <c r="E67" s="25">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="F67" s="25">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="H67" s="28">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="I67" s="28">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="J67" s="28">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="K67" s="28">
+        <f t="shared" si="8"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>2400</v>
+      </c>
+      <c r="B68" s="4">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4">
+        <f>$F$60-B68</f>
+        <v>50</v>
+      </c>
+      <c r="D68" s="27">
+        <f>($A68+D$62)/$C68</f>
+        <v>48</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="H68" s="30">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+      <c r="I68" s="30">
+        <f t="shared" si="6"/>
+        <v>14400</v>
+      </c>
+      <c r="J68" s="30">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="K68" s="30">
+        <f t="shared" si="8"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2800</v>
+      </c>
+      <c r="B69">
+        <f>B70-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C69" s="25">
+        <f>$F$60-B69</f>
+        <v>100</v>
+      </c>
+      <c r="D69" s="32">
+        <f>($A69+D$62)/$C69</f>
+        <v>28</v>
+      </c>
+      <c r="E69" s="6">
+        <f>($A69+E$62)/$C69</f>
+        <v>40</v>
+      </c>
+      <c r="F69" s="6">
+        <f>($A69+F$62)/$C69</f>
+        <v>44</v>
+      </c>
+      <c r="G69" s="7">
+        <f>($A69+G$62)/$C69</f>
+        <v>48</v>
+      </c>
+      <c r="H69" s="28">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+      <c r="I69" s="28">
+        <f t="shared" si="6"/>
+        <v>8000</v>
+      </c>
+      <c r="J69" s="28">
+        <f t="shared" si="7"/>
+        <v>8800</v>
+      </c>
+      <c r="K69" s="28">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2800</v>
+      </c>
+      <c r="B70">
+        <v>120</v>
+      </c>
+      <c r="C70" s="25">
+        <f>$F$60-B70</f>
+        <v>80</v>
+      </c>
+      <c r="D70" s="31">
+        <f>($A70+D$62)/$C70</f>
+        <v>35</v>
+      </c>
+      <c r="E70" s="25">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F70" s="25">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="H70" s="28">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="I70" s="28">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="J70" s="28">
+        <f t="shared" si="7"/>
+        <v>11000</v>
+      </c>
+      <c r="K70" s="28">
+        <f t="shared" si="8"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B71" s="4">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4">
+        <f>$F$60-B71</f>
+        <v>50</v>
+      </c>
+      <c r="D71" s="27">
+        <f>($A71+D$62)/$C71</f>
+        <v>56</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="H71" s="30">
+        <f t="shared" si="5"/>
+        <v>11200</v>
+      </c>
+      <c r="I71" s="30">
+        <f t="shared" si="6"/>
+        <v>16000</v>
+      </c>
+      <c r="J71" s="30">
+        <f t="shared" si="7"/>
+        <v>17600</v>
+      </c>
+      <c r="K71" s="30">
+        <f t="shared" si="8"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" t="s">
+        <v>106</v>
+      </c>
+      <c r="L78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D79" s="33">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1200</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1600</v>
+      </c>
+      <c r="G79" s="34">
+        <v>2000</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>1200</v>
+      </c>
+      <c r="J79" s="10">
+        <v>1600</v>
+      </c>
+      <c r="K79" s="34">
+        <v>2000</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0</v>
+      </c>
+      <c r="M79" s="10">
+        <v>1200</v>
+      </c>
+      <c r="N79" s="10">
+        <v>1600</v>
+      </c>
+      <c r="O79" s="34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2000</v>
+      </c>
+      <c r="B81">
+        <f>B82-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C81" s="25">
+        <f>$F$60-B81</f>
+        <v>100</v>
+      </c>
+      <c r="D81" s="31">
+        <f>H63-$H63</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="31">
+        <f t="shared" ref="E81:G89" si="9">I63-$H63</f>
+        <v>2400</v>
+      </c>
+      <c r="F81" s="31">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="G81" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="H81" s="28">
+        <f>D63-$D63</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81:K89" si="10">E63-$D63</f>
+        <v>12</v>
+      </c>
+      <c r="J81" s="28">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K81" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L81" s="28">
+        <f>D81/H63</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="28">
+        <f t="shared" ref="M81:O89" si="11">E81/I63</f>
+        <v>0.375</v>
+      </c>
+      <c r="N81" s="28">
+        <f t="shared" si="11"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O81" s="28">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2000</v>
+      </c>
+      <c r="B82">
+        <v>120</v>
+      </c>
+      <c r="C82" s="25">
+        <f>$F$60-B82</f>
+        <v>80</v>
+      </c>
+      <c r="D82" s="31">
+        <f t="shared" ref="D82:D89" si="12">H64-$H64</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="31">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="F82" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="G82" s="31">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+      <c r="H82" s="28">
+        <f t="shared" ref="H82:H89" si="13">D64-$D64</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="28">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J82" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K82" s="28">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L82" s="28">
+        <f t="shared" ref="L82:L89" si="14">D82/H64</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="28">
+        <f t="shared" si="11"/>
+        <v>0.375</v>
+      </c>
+      <c r="N82" s="28">
+        <f t="shared" si="11"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O82" s="28">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B83" s="4">
+        <v>150</v>
+      </c>
+      <c r="C83" s="4">
+        <f>$F$60-B83</f>
+        <v>50</v>
+      </c>
+      <c r="D83" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="31">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="F83" s="31">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="G83" s="31">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="H83" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="28">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="J83" s="28">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="K83" s="28">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L83" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="28">
+        <f t="shared" si="11"/>
+        <v>0.375</v>
+      </c>
+      <c r="N83" s="28">
+        <f t="shared" si="11"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O83" s="28">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2400</v>
+      </c>
+      <c r="B84">
+        <f>B85-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C84" s="25">
+        <f>$F$60-B84</f>
+        <v>100</v>
+      </c>
+      <c r="D84" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="31">
+        <f>I66-$H66</f>
+        <v>2400</v>
+      </c>
+      <c r="F84" s="31">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="G84" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="H84" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="28">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J84" s="28">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K84" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L84" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="28">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N84" s="28">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O84" s="28">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2400</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85" s="25">
+        <f>$F$60-B85</f>
+        <v>80</v>
+      </c>
+      <c r="D85" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="31">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="F85" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="G85" s="31">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+      <c r="H85" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="28">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J85" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K85" s="28">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L85" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="28">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N85" s="28">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O85" s="28">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>2400</v>
+      </c>
+      <c r="B86" s="4">
+        <v>150</v>
+      </c>
+      <c r="C86" s="4">
+        <f>$F$60-B86</f>
+        <v>50</v>
+      </c>
+      <c r="D86" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="31">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="F86" s="31">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="G86" s="31">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="H86" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="28">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="J86" s="28">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="K86" s="28">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L86" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="28">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N86" s="28">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="O86" s="28">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2800</v>
+      </c>
+      <c r="B87">
+        <f>B88-$B$60</f>
+        <v>100</v>
+      </c>
+      <c r="C87" s="25">
+        <f>$F$60-B87</f>
+        <v>100</v>
+      </c>
+      <c r="D87" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="31">
+        <f>I69-$H69</f>
+        <v>2400</v>
+      </c>
+      <c r="F87" s="31">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="G87" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="H87" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="28">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J87" s="28">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K87" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L87" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="28">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="N87" s="28">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O87" s="28">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2800</v>
+      </c>
+      <c r="B88">
+        <v>120</v>
+      </c>
+      <c r="C88" s="25">
+        <f>$F$60-B88</f>
+        <v>80</v>
+      </c>
+      <c r="D88" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="31">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="F88" s="31">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="G88" s="31">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+      <c r="H88" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="28">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J88" s="28">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K88" s="28">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L88" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="28">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="N88" s="28">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O88" s="28">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B89" s="4">
+        <v>150</v>
+      </c>
+      <c r="C89" s="4">
+        <f>$F$60-B89</f>
+        <v>50</v>
+      </c>
+      <c r="D89" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="31">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="F89" s="31">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="G89" s="31">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="H89" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="28">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="J89" s="28">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="K89" s="28">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L89" s="28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="28">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="N89" s="28">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O89" s="28">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20">
+        <v>200</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="21"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="22">
+        <v>0</v>
+      </c>
+      <c r="E105" s="23">
+        <v>1200</v>
+      </c>
+      <c r="F105" s="23">
+        <v>1600</v>
+      </c>
+      <c r="G105" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B106" s="20">
+        <v>100</v>
+      </c>
+      <c r="C106">
+        <f>$F$103-B106</f>
+        <v>100</v>
+      </c>
+      <c r="D106" s="32">
+        <f>($A106+D$62)/$C106</f>
+        <v>20</v>
+      </c>
+      <c r="E106" s="6">
+        <f>($A106+E$62)/$C106</f>
+        <v>32</v>
+      </c>
+      <c r="F106" s="6">
+        <f>($A106+F$62)/$C106</f>
+        <v>36</v>
+      </c>
+      <c r="G106" s="7">
+        <f>($A106+G$62)/$C106</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B107" s="20">
+        <v>120</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:C108" si="15">$F$103-B107</f>
+        <v>80</v>
+      </c>
+      <c r="D107" s="31">
+        <f>($A107+D$62)/$C107</f>
+        <v>25</v>
+      </c>
+      <c r="E107" s="25">
+        <f t="shared" ref="E107:G108" si="16">($A107+E$62)/$C107</f>
+        <v>40</v>
+      </c>
+      <c r="F107" s="25">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="G107" s="8">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B108" s="23">
+        <v>150</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="D108" s="27">
+        <f>($A108+D$62)/$C108</f>
+        <v>40</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20">
+        <v>200</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="22">
+        <v>0</v>
+      </c>
+      <c r="E113" s="23">
+        <v>1200</v>
+      </c>
+      <c r="F113" s="23">
+        <v>1600</v>
+      </c>
+      <c r="G113" s="24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>800</v>
+      </c>
+      <c r="B114">
+        <f>B106+($F$103*$B$98)</f>
+        <v>130</v>
+      </c>
+      <c r="C114">
+        <f>$F$111-B114</f>
+        <v>70</v>
+      </c>
+      <c r="D114" s="32">
+        <f>($A114+D$62)/$C114</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="E114" s="32">
+        <f t="shared" ref="E114:G116" si="17">($A114+E$62)/$C114</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="F114" s="32">
+        <f t="shared" si="17"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="G114" s="32">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>800</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115:B116" si="18">B107+($F$103*$B$98)</f>
+        <v>150</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ref="C115:C116" si="19">$F$111-B115</f>
+        <v>50</v>
+      </c>
+      <c r="D115" s="32">
+        <f t="shared" ref="D115:D116" si="20">($A115+D$62)/$C115</f>
+        <v>16</v>
+      </c>
+      <c r="E115" s="32">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="F115" s="32">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="G115" s="32">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>800</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="18"/>
+        <v>180</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="D116" s="32">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="E116" s="32">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="F116" s="32">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="G116" s="32">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20">
+        <v>200</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="19">
+        <v>0</v>
+      </c>
+      <c r="E121" s="37">
+        <v>1200</v>
+      </c>
+      <c r="F121" s="37">
+        <v>1600</v>
+      </c>
+      <c r="G121" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08C277-972C-3D46-BA7A-89046F694847}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A36" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="23">
+        <v>120</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <f>C2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <f>B10*D9</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <f>B10*E5</f>
+        <v>8000</v>
+      </c>
+      <c r="C14">
+        <f>B11*E5</f>
+        <v>8800</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B5*B10</f>
+        <v>4800</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B11*B5</f>
+        <v>5280</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15-B15</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>B14-B15</f>
+        <v>3200</v>
+      </c>
+      <c r="C16">
+        <f>C14-C15</f>
+        <v>3520</v>
+      </c>
+      <c r="D16" s="38">
+        <f>C16-B16</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="C17" s="4">
+        <f>B4+B9</f>
+        <v>2500</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17-B17</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>B16-B17</f>
+        <v>1200</v>
+      </c>
+      <c r="C18">
+        <f>C16-C17</f>
+        <v>1020</v>
+      </c>
+      <c r="D18" s="29">
+        <f>C18-B18</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27">
+        <f>B10*E5</f>
+        <v>8000</v>
+      </c>
+      <c r="C27">
+        <f>B23*B22</f>
+        <v>8750</v>
+      </c>
+      <c r="D27">
+        <f>C27-B27</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
+        <f>B10*B5</f>
+        <v>4800</v>
+      </c>
+      <c r="C28" s="4">
+        <f>B23*B24</f>
+        <v>5750</v>
+      </c>
+      <c r="D28" s="4">
+        <f>C28-B28</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <f>B27-B28</f>
+        <v>3200</v>
+      </c>
+      <c r="C29">
+        <f>C27-C28</f>
+        <v>3000</v>
+      </c>
+      <c r="D29" s="39">
+        <f>C29-B29</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B17</f>
+        <v>2000</v>
+      </c>
+      <c r="C30" s="4">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="D30" s="4">
+        <f>C30-B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <f>B29-B30</f>
+        <v>1200</v>
+      </c>
+      <c r="C31">
+        <f>C29-C30</f>
+        <v>1000</v>
+      </c>
+      <c r="D31" s="26">
+        <f>C31-B31</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <f>B23*D9</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <f>B22*B23</f>
+        <v>8750</v>
+      </c>
+      <c r="C36">
+        <f>B34*B22</f>
+        <v>9625.0000000000018</v>
+      </c>
+      <c r="D36" s="40">
+        <f t="shared" ref="D36:D39" si="0">C36-B36</f>
+        <v>875.00000000000182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <f>B24*B23</f>
+        <v>5750</v>
+      </c>
+      <c r="C37">
+        <f>B34*B24</f>
+        <v>6325.0000000000009</v>
+      </c>
+      <c r="D37" s="41">
+        <f t="shared" si="0"/>
+        <v>575.00000000000091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="6">
+        <f>B36-B37</f>
+        <v>3000</v>
+      </c>
+      <c r="C38" s="6">
+        <f>C36-C37</f>
+        <v>3300.0000000000009</v>
+      </c>
+      <c r="D38" s="40">
+        <f t="shared" si="0"/>
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="C39" s="4">
+        <f>B4+B9</f>
+        <v>2500</v>
+      </c>
+      <c r="D39" s="41">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <f>B38-B39</f>
+        <v>1000</v>
+      </c>
+      <c r="C40">
+        <f>C38-C39</f>
+        <v>800.00000000000091</v>
+      </c>
+      <c r="D40" s="42">
+        <f>C40-B40</f>
+        <v>-199.99999999999909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="6">
+        <f>SUM(B46:B47)</f>
+        <v>3200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="6">
+        <f>B48/B49</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="6">
+        <f>SUM(B50:B51)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55">
+        <v>200</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D56" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="52">
+        <v>0</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="35">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="53">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="52">
+        <v>0</v>
+      </c>
+      <c r="I57" s="35">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="35">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2000</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <f>$F$55-B58</f>
+        <v>100</v>
+      </c>
+      <c r="D58" s="44">
+        <f>A58/(C58)</f>
+        <v>20</v>
+      </c>
+      <c r="E58" s="45">
+        <f>($A58+E$57)/$C58</f>
+        <v>32</v>
+      </c>
+      <c r="F58" s="45">
+        <f t="shared" ref="F58:G66" si="1">($A58+F$57)/$C58</f>
+        <v>36</v>
+      </c>
+      <c r="G58" s="46">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H58" s="44">
+        <f>$F$55*D58</f>
+        <v>4000</v>
+      </c>
+      <c r="I58" s="45">
+        <f t="shared" ref="I58:K66" si="2">$F$55*E58</f>
+        <v>6400</v>
+      </c>
+      <c r="J58" s="45">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="K58" s="46">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2000</v>
+      </c>
+      <c r="B59">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:C66" si="3">$F$55-B59</f>
+        <v>80</v>
+      </c>
+      <c r="D59" s="47">
+        <f>A59/(C59)</f>
+        <v>25</v>
+      </c>
+      <c r="E59" s="25">
+        <f t="shared" ref="E59:E63" si="4">($A59+E$57)/$C59</f>
+        <v>40</v>
+      </c>
+      <c r="F59" s="25">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G59" s="48">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H59" s="47">
+        <f t="shared" ref="H59:H66" si="5">$F$55*D59</f>
+        <v>5000</v>
+      </c>
+      <c r="I59" s="25">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="J59" s="25">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="K59" s="48">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="4">
+        <v>150</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D60" s="49">
+        <f>A60/(C60)</f>
+        <v>40</v>
+      </c>
+      <c r="E60" s="50">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F60" s="50">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G60" s="51">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H60" s="49">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="I60" s="50">
+        <f t="shared" si="2"/>
+        <v>12800</v>
+      </c>
+      <c r="J60" s="50">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+      <c r="K60" s="51">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <f>$F$55-B61</f>
+        <v>100</v>
+      </c>
+      <c r="D61" s="44">
+        <f>A61/(C61)</f>
+        <v>24</v>
+      </c>
+      <c r="E61" s="45">
+        <f>($A61+E$57)/$C61</f>
+        <v>36</v>
+      </c>
+      <c r="F61" s="45">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G61" s="46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H61" s="44">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="I61" s="45">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="J61" s="45">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="K61" s="46">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B62">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D62" s="47">
+        <f>A62/(C62)</f>
+        <v>30</v>
+      </c>
+      <c r="E62" s="25">
+        <f>($A62+E$57)/$C62</f>
+        <v>45</v>
+      </c>
+      <c r="F62" s="25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G62" s="48">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H62" s="47">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="I62" s="25">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="J62" s="25">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="K62" s="48">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B63" s="4">
+        <v>150</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D63" s="49">
+        <f>A63/(C63)</f>
+        <v>48</v>
+      </c>
+      <c r="E63" s="50">
+        <f>($A63+E$57)/$C63</f>
+        <v>72</v>
+      </c>
+      <c r="F63" s="50">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G63" s="51">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H63" s="49">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+      <c r="I63" s="50">
+        <f t="shared" si="2"/>
+        <v>14400</v>
+      </c>
+      <c r="J63" s="50">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="K63" s="51">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2800</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <f>$F$55-B64</f>
+        <v>100</v>
+      </c>
+      <c r="D64" s="44">
+        <f>A64/(C64)</f>
+        <v>28</v>
+      </c>
+      <c r="E64" s="45">
+        <f>($A64+E$57)/$C64</f>
+        <v>40</v>
+      </c>
+      <c r="F64" s="45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G64" s="46">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H64" s="44">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+      <c r="I64" s="45">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="J64" s="45">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+      <c r="K64" s="46">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2800</v>
+      </c>
+      <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D65" s="47">
+        <f>A65/(C65)</f>
+        <v>35</v>
+      </c>
+      <c r="E65" s="25">
+        <f>($A65+E$57)/$C65</f>
+        <v>50</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G65" s="48">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H65" s="47">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="I65" s="25">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="J65" s="25">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="K65" s="48">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B66" s="4">
+        <v>150</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D66" s="49">
+        <f>A66/(C66)</f>
+        <v>56</v>
+      </c>
+      <c r="E66" s="50">
+        <f>($A66+E$57)/$C66</f>
+        <v>80</v>
+      </c>
+      <c r="F66" s="50">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G66" s="51">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H66" s="49">
+        <f t="shared" si="5"/>
+        <v>11200</v>
+      </c>
+      <c r="I66" s="50">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="J66" s="50">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+      <c r="K66" s="51">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="52">
+        <v>0</v>
+      </c>
+      <c r="E71" s="35">
+        <v>1200</v>
+      </c>
+      <c r="F71" s="35">
+        <v>1600</v>
+      </c>
+      <c r="G71" s="53">
+        <v>2000</v>
+      </c>
+      <c r="H71" s="52">
+        <v>0</v>
+      </c>
+      <c r="I71" s="35">
+        <v>1200</v>
+      </c>
+      <c r="J71" s="35">
+        <v>1600</v>
+      </c>
+      <c r="K71" s="53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2000</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <f>$F$55-B72</f>
+        <v>100</v>
+      </c>
+      <c r="D72" s="44">
+        <f>D58-$D58</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="45">
+        <f>E58-$D58</f>
+        <v>12</v>
+      </c>
+      <c r="F72" s="45">
+        <f>F58-$D58</f>
+        <v>16</v>
+      </c>
+      <c r="G72" s="46">
+        <f>G58-$D58</f>
+        <v>20</v>
+      </c>
+      <c r="H72" s="44">
+        <f>H58-$H58</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="45">
+        <f>I58-$H58</f>
+        <v>2400</v>
+      </c>
+      <c r="J72" s="45">
+        <f t="shared" ref="J72:K72" si="6">J58-$H58</f>
+        <v>3200</v>
+      </c>
+      <c r="K72" s="46">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2000</v>
+      </c>
+      <c r="B73">
+        <v>120</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C80" si="7">$F$55-B73</f>
+        <v>80</v>
+      </c>
+      <c r="D73" s="47">
+        <f t="shared" ref="D73:G80" si="8">D59-$D59</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="25">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="F73" s="25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="48">
+        <f>G59-$D59</f>
+        <v>25</v>
+      </c>
+      <c r="H73" s="47">
+        <f t="shared" ref="H73:K80" si="9">H59-$H59</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="25">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="J73" s="25">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="K73" s="48">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B74" s="4">
+        <v>150</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D74" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="25">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="F74" s="25">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="G74" s="48">
+        <f>G60-$D60</f>
+        <v>40</v>
+      </c>
+      <c r="H74" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="25">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="J74" s="25">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="K74" s="48">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <f>$F$55-B75</f>
+        <v>100</v>
+      </c>
+      <c r="D75" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="45">
+        <f>E61-$D61</f>
+        <v>12</v>
+      </c>
+      <c r="F75" s="45">
+        <f>F61-$D61</f>
+        <v>16</v>
+      </c>
+      <c r="G75" s="46">
+        <f>G61-$D61</f>
+        <v>20</v>
+      </c>
+      <c r="H75" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="45">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="J75" s="45">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="K75" s="46">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B76">
+        <v>120</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D76" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="25">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="F76" s="25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G76" s="48">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H76" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="25">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="J76" s="25">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="K76" s="48">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
+      <c r="B77" s="4">
+        <v>150</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D77" s="49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="50">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="F77" s="50">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="G77" s="51">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="H77" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="50">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="J77" s="50">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="K77" s="51">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2800</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <f>$F$55-B78</f>
+        <v>100</v>
+      </c>
+      <c r="D78" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="25">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="F78" s="25">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="G78" s="48">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H78" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="25">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="J78" s="25">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="K78" s="48">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2800</v>
+      </c>
+      <c r="B79">
+        <v>120</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D79" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="25">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="F79" s="25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G79" s="48">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H79" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="25">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="J79" s="25">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="K79" s="48">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B80" s="4">
+        <v>150</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D80" s="49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="50">
+        <f t="shared" ref="E80:G80" si="10">E66-$D66</f>
+        <v>24</v>
+      </c>
+      <c r="F80" s="50">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="G80" s="51">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="H80" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="50">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="J80" s="50">
+        <f t="shared" si="9"/>
+        <v>6400</v>
+      </c>
+      <c r="K80" s="51">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="46">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="51">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20">
+        <v>200</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="19">
+        <v>0</v>
+      </c>
+      <c r="E96" s="37">
+        <v>1200</v>
+      </c>
+      <c r="F96" s="37">
+        <v>1600</v>
+      </c>
+      <c r="G96" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B97" s="20">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <f>$F$94-B97</f>
+        <v>100</v>
+      </c>
+      <c r="D97" s="44">
+        <f>A97/(C97)</f>
+        <v>20</v>
+      </c>
+      <c r="E97" s="44"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="46"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B98" s="20">
+        <v>120</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:C99" si="11">$F$94-B98</f>
+        <v>80</v>
+      </c>
+      <c r="D98" s="47">
+        <f t="shared" ref="D98:E99" si="12">A98/(C98)</f>
+        <v>25</v>
+      </c>
+      <c r="E98" s="47"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="48"/>
+    </row>
+    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B99" s="23">
+        <v>150</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D99" s="49">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="51"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D102" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20">
+        <v>200</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D103" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="21"/>
+    </row>
+    <row r="104" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="19">
+        <v>0</v>
+      </c>
+      <c r="E104" s="37">
+        <v>1200</v>
+      </c>
+      <c r="F104" s="37">
+        <v>1600</v>
+      </c>
+      <c r="G104" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>800</v>
+      </c>
+      <c r="B105" s="6">
+        <f>B97+($B$89*$F$94)</f>
+        <v>130</v>
+      </c>
+      <c r="C105" s="6">
+        <f>$F$94-B105</f>
+        <v>70</v>
+      </c>
+      <c r="D105" s="44">
+        <f>A105/(C105)</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="E105" s="44"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>800</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:B107" si="13">B98+($B$89*$F$94)</f>
+        <v>150</v>
+      </c>
+      <c r="C106" s="25">
+        <f t="shared" ref="C106:C107" si="14">$F$94-B106</f>
+        <v>50</v>
+      </c>
+      <c r="D106" s="47">
+        <f t="shared" ref="D106:E107" si="15">A106/(C106)</f>
+        <v>16</v>
+      </c>
+      <c r="E106" s="47"/>
+    </row>
+    <row r="107" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
+        <v>800</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="D107" s="49">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="E107" s="49"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>800</v>
+      </c>
+      <c r="B113" s="6">
+        <f>B97+($B$91*$F$94)</f>
+        <v>150</v>
+      </c>
+      <c r="C113" s="6">
+        <f>$F$94-B113</f>
+        <v>50</v>
+      </c>
+      <c r="D113" s="44">
+        <f>A113/(C113)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>800</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ref="B114:B115" si="16">B98+($B$91*$F$94)</f>
+        <v>170</v>
+      </c>
+      <c r="C114" s="25">
+        <f t="shared" ref="C114:C115" si="17">$F$94-B114</f>
+        <v>30</v>
+      </c>
+      <c r="D114" s="47">
+        <f t="shared" ref="D114:D115" si="18">A114/(C114)</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="20">
+        <v>800</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="49" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8F15B-0EE5-0246-9CB2-4D43FBCA02E0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="23">
+        <v>120</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <f>C2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <f>B10*D9</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="25">
+        <f>B10*E5</f>
+        <v>8000</v>
+      </c>
+      <c r="C14" s="25">
+        <f>B11*E5</f>
+        <v>8800</v>
+      </c>
+      <c r="D14" s="25">
+        <f>C14-B14</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B5*B10</f>
+        <v>4800</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B11*B5</f>
+        <v>5280</v>
+      </c>
+      <c r="D15" s="25">
+        <f>C15-B15</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>B14-B15</f>
+        <v>3200</v>
+      </c>
+      <c r="C16">
+        <f>C14-C15</f>
+        <v>3520</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16-B16</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="C17" s="4">
+        <f>B4+B9</f>
+        <v>2500</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17-B17</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>B16-B17</f>
+        <v>1200</v>
+      </c>
+      <c r="C18">
+        <f>C16-C17</f>
+        <v>1020</v>
+      </c>
+      <c r="D18" s="29">
+        <f>C18-B18</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>B10*E5</f>
+        <v>8000</v>
+      </c>
+      <c r="C29">
+        <f>B25*B24</f>
+        <v>8750</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:D33" si="0">C29-B29</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f>B10*B5</f>
+        <v>4800</v>
+      </c>
+      <c r="C30">
+        <f>B25*B26</f>
+        <v>5750</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6">
+        <f>B29-B30</f>
+        <v>3200</v>
+      </c>
+      <c r="C31" s="6">
+        <f>C29-C30</f>
+        <v>3000</v>
+      </c>
+      <c r="D31" s="35">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="C32">
+        <f>B4</f>
+        <v>2000</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="6">
+        <f>B31-B32</f>
+        <v>1200</v>
+      </c>
+      <c r="C33" s="6">
+        <f>C31-C32</f>
+        <v>1000</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <f>B25*D9</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <f>C29</f>
+        <v>8750</v>
+      </c>
+      <c r="C38">
+        <f>B24*B36</f>
+        <v>9625.0000000000018</v>
+      </c>
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>875.00000000000182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" ref="B39:B42" si="1">C30</f>
+        <v>5750</v>
+      </c>
+      <c r="C39" s="4">
+        <f>B36*B26</f>
+        <v>6325.0000000000009</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39-B39</f>
+        <v>575.00000000000091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <f>C38-C39</f>
+        <v>3300.0000000000009</v>
+      </c>
+      <c r="D40" s="25">
+        <f t="shared" ref="D40:D42" si="2">C40-B40</f>
+        <v>300.00000000000091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="C41" s="4">
+        <f>B4+B9</f>
+        <v>2500</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="C42">
+        <f>C40-C41</f>
+        <v>800.00000000000091</v>
+      </c>
+      <c r="D42" s="35">
+        <f t="shared" si="2"/>
+        <v>-199.99999999999909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="6">
+        <f>SUM(B48:B49)</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="6">
+        <f>B50/B51</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="6">
+        <f>B53+B52</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D60" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="31">
+        <v>0</v>
+      </c>
+      <c r="E62" s="25">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="25">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="31">
+        <v>0</v>
+      </c>
+      <c r="I62" s="25">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="25">
+        <v>1600</v>
+      </c>
+      <c r="K62" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2000</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63" s="25">
+        <f>$F$60-B63</f>
+        <v>100</v>
+      </c>
+      <c r="D63" s="44">
+        <f>$A63/$C63</f>
+        <v>20</v>
+      </c>
+      <c r="E63" s="45">
+        <f>($A63+E$62)/$C63</f>
+        <v>32</v>
+      </c>
+      <c r="F63" s="45">
+        <f t="shared" ref="F63:G71" si="3">($A63+F$62)/$C63</f>
+        <v>36</v>
+      </c>
+      <c r="G63" s="46">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H63" s="44">
+        <f>D63*$F$60</f>
+        <v>4000</v>
+      </c>
+      <c r="I63" s="45">
+        <f t="shared" ref="I63:I71" si="4">E63*$F$60</f>
+        <v>6400</v>
+      </c>
+      <c r="J63" s="45">
+        <f t="shared" ref="J63:J71" si="5">F63*$F$60</f>
+        <v>7200</v>
+      </c>
+      <c r="K63" s="46">
+        <f t="shared" ref="K63:K71" si="6">G63*$F$60</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2000</v>
+      </c>
+      <c r="B64">
+        <v>120</v>
+      </c>
+      <c r="C64" s="25">
+        <f t="shared" ref="C64:C71" si="7">$F$60-B64</f>
+        <v>80</v>
+      </c>
+      <c r="D64" s="47">
+        <f t="shared" ref="D64:D71" si="8">$A64/$C64</f>
+        <v>25</v>
+      </c>
+      <c r="E64" s="25">
+        <f t="shared" ref="E64:E71" si="9">($A64+E$62)/$C64</f>
+        <v>40</v>
+      </c>
+      <c r="F64" s="25">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G64" s="48">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H64" s="47">
+        <f t="shared" ref="H64:H71" si="10">D64*$F$60</f>
+        <v>5000</v>
+      </c>
+      <c r="I64" s="25">
+        <f t="shared" si="4"/>
+        <v>8000</v>
+      </c>
+      <c r="J64" s="25">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="K64" s="48">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B65" s="4">
+        <v>150</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D65" s="47">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E65" s="25">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="G65" s="48">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H65" s="47">
+        <f t="shared" si="10"/>
+        <v>8000</v>
+      </c>
+      <c r="I65" s="25">
+        <f t="shared" si="4"/>
+        <v>12800</v>
+      </c>
+      <c r="J65" s="25">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="K65" s="48">
+        <f t="shared" si="6"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2400</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66" s="25">
+        <f>$F$60-B66</f>
+        <v>100</v>
+      </c>
+      <c r="D66" s="44">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E66" s="45">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="F66" s="45">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G66" s="46">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H66" s="44">
+        <f t="shared" si="10"/>
+        <v>4800</v>
+      </c>
+      <c r="I66" s="45">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="J66" s="45">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="K66" s="46">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2400</v>
+      </c>
+      <c r="B67">
+        <v>120</v>
+      </c>
+      <c r="C67" s="25">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D67" s="47">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E67" s="25">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="F67" s="25">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G67" s="48">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="H67" s="47">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="I67" s="25">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="J67" s="25">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="K67" s="48">
+        <f t="shared" si="6"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2400</v>
+      </c>
+      <c r="B68" s="4">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D68" s="49">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="E68" s="50">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F68" s="50">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="51">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="H68" s="49">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="I68" s="50">
+        <f t="shared" si="4"/>
+        <v>14400</v>
+      </c>
+      <c r="J68" s="50">
+        <f t="shared" si="5"/>
+        <v>16000</v>
+      </c>
+      <c r="K68" s="51">
+        <f t="shared" si="6"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2800</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69" s="25">
+        <f>$F$60-B69</f>
+        <v>100</v>
+      </c>
+      <c r="D69" s="47">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E69" s="25">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="F69" s="25">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G69" s="48">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="H69" s="47">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="I69" s="25">
+        <f t="shared" si="4"/>
+        <v>8000</v>
+      </c>
+      <c r="J69" s="25">
+        <f t="shared" si="5"/>
+        <v>8800</v>
+      </c>
+      <c r="K69" s="48">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2800</v>
+      </c>
+      <c r="B70">
+        <v>120</v>
+      </c>
+      <c r="C70" s="25">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D70" s="47">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E70" s="25">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="F70" s="25">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="48">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H70" s="47">
+        <f t="shared" si="10"/>
+        <v>7000</v>
+      </c>
+      <c r="I70" s="25">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="J70" s="25">
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="K70" s="48">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B71" s="4">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D71" s="49">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="E71" s="50">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="F71" s="50">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="G71" s="51">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H71" s="49">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="I71" s="50">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="J71" s="50">
+        <f t="shared" si="5"/>
+        <v>17600</v>
+      </c>
+      <c r="K71" s="51">
+        <f t="shared" si="6"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="D75" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" t="s">
+        <v>133</v>
+      </c>
+      <c r="L76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="31">
+        <v>0</v>
+      </c>
+      <c r="E77" s="25">
+        <v>1200</v>
+      </c>
+      <c r="F77" s="25">
+        <v>1600</v>
+      </c>
+      <c r="G77" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H77" s="31">
+        <v>0</v>
+      </c>
+      <c r="I77" s="25">
+        <v>1200</v>
+      </c>
+      <c r="J77" s="25">
+        <v>1600</v>
+      </c>
+      <c r="K77" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L77" s="31">
+        <v>0</v>
+      </c>
+      <c r="M77" s="25">
+        <v>1200</v>
+      </c>
+      <c r="N77" s="25">
+        <v>1600</v>
+      </c>
+      <c r="O77" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2000</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78" s="25">
+        <f>$F$60-B78</f>
+        <v>100</v>
+      </c>
+      <c r="D78" s="44">
+        <f>D63-$D63</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="45">
+        <f>E63-$D63</f>
+        <v>12</v>
+      </c>
+      <c r="F78" s="45">
+        <f t="shared" ref="F78:G78" si="11">F63-$D63</f>
+        <v>16</v>
+      </c>
+      <c r="G78" s="46">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H78" s="57">
+        <f>H63-$H63</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="58">
+        <f t="shared" ref="I78:K78" si="12">I63-$H63</f>
+        <v>2400</v>
+      </c>
+      <c r="J78" s="58">
+        <f t="shared" si="12"/>
+        <v>3200</v>
+      </c>
+      <c r="K78" s="59">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="L78" s="57">
+        <f>H78/H63</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="58">
+        <f t="shared" ref="M78:O86" si="13">I78/I63</f>
+        <v>0.375</v>
+      </c>
+      <c r="N78" s="58">
+        <f t="shared" si="13"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O78" s="59">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2000</v>
+      </c>
+      <c r="B79">
+        <v>120</v>
+      </c>
+      <c r="C79" s="25">
+        <f t="shared" ref="C79:C86" si="14">$F$60-B79</f>
+        <v>80</v>
+      </c>
+      <c r="D79" s="47">
+        <f t="shared" ref="D79:G86" si="15">D64-$D64</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="25">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="F79" s="25">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="G79" s="48">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="H79" s="60">
+        <f t="shared" ref="H79:K86" si="16">H64-$H64</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="28">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="J79" s="28">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="K79" s="61">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="L79" s="60">
+        <f t="shared" ref="L79:L86" si="17">H79/H64</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="28">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="N79" s="28">
+        <f t="shared" si="13"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O79" s="61">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B80" s="4">
+        <v>150</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D80" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="25">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="F80" s="25">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="G80" s="48">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="H80" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="28">
+        <f t="shared" si="16"/>
+        <v>4800</v>
+      </c>
+      <c r="J80" s="28">
+        <f t="shared" si="16"/>
+        <v>6400</v>
+      </c>
+      <c r="K80" s="61">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="L80" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="28">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="N80" s="28">
+        <f t="shared" si="13"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O80" s="61">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2400</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81" s="25">
+        <f>$F$60-B81</f>
+        <v>100</v>
+      </c>
+      <c r="D81" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="45">
+        <f>E66-$D66</f>
+        <v>12</v>
+      </c>
+      <c r="F81" s="45">
+        <f t="shared" ref="F81:G81" si="18">F66-$D66</f>
+        <v>16</v>
+      </c>
+      <c r="G81" s="46">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="H81" s="57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="58">
+        <f t="shared" si="16"/>
+        <v>2400</v>
+      </c>
+      <c r="J81" s="58">
+        <f t="shared" si="16"/>
+        <v>3200</v>
+      </c>
+      <c r="K81" s="59">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="L81" s="57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="58">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N81" s="58">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="O81" s="59">
+        <f t="shared" si="13"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2400</v>
+      </c>
+      <c r="B82">
+        <v>120</v>
+      </c>
+      <c r="C82" s="25">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="D82" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="25">
+        <f t="shared" ref="E82:G82" si="19">E67-$D67</f>
+        <v>15</v>
+      </c>
+      <c r="F82" s="25">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="48">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="H82" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="28">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="J82" s="28">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="K82" s="61">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="L82" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="28">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N82" s="28">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="O82" s="61">
+        <f t="shared" si="13"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2400</v>
+      </c>
+      <c r="B83" s="4">
+        <v>150</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D83" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="50">
+        <f t="shared" ref="E83:G83" si="20">E68-$D68</f>
+        <v>24</v>
+      </c>
+      <c r="F83" s="50">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="G83" s="51">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="H83" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="63">
+        <f t="shared" si="16"/>
+        <v>4800</v>
+      </c>
+      <c r="J83" s="63">
+        <f t="shared" si="16"/>
+        <v>6400</v>
+      </c>
+      <c r="K83" s="64">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="L83" s="62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="63">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N83" s="63">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="O83" s="64">
+        <f t="shared" si="13"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2800</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84" s="25">
+        <f>$F$60-B84</f>
+        <v>100</v>
+      </c>
+      <c r="D84" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="25">
+        <f>E69-$D69</f>
+        <v>12</v>
+      </c>
+      <c r="F84" s="25">
+        <f t="shared" ref="F84:G84" si="21">F69-$D69</f>
+        <v>16</v>
+      </c>
+      <c r="G84" s="48">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="H84" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="28">
+        <f t="shared" si="16"/>
+        <v>2400</v>
+      </c>
+      <c r="J84" s="28">
+        <f t="shared" si="16"/>
+        <v>3200</v>
+      </c>
+      <c r="K84" s="61">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="L84" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="28">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="N84" s="28">
+        <f t="shared" si="13"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O84" s="61">
+        <f t="shared" si="13"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2800</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85" s="25">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="D85" s="47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="25">
+        <f t="shared" ref="E85:G85" si="22">E70-$D70</f>
+        <v>15</v>
+      </c>
+      <c r="F85" s="25">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="G85" s="48">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="H85" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="28">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="J85" s="28">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="K85" s="61">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="L85" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="28">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="N85" s="28">
+        <f t="shared" si="13"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O85" s="61">
+        <f t="shared" si="13"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>2800</v>
+      </c>
+      <c r="B86" s="4">
+        <v>150</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="D86" s="49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="50">
+        <f t="shared" ref="E86:G86" si="23">E71-$D71</f>
+        <v>24</v>
+      </c>
+      <c r="F86" s="50">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="G86" s="51">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="H86" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="63">
+        <f t="shared" si="16"/>
+        <v>4800</v>
+      </c>
+      <c r="J86" s="63">
+        <f t="shared" si="16"/>
+        <v>6400</v>
+      </c>
+      <c r="K86" s="64">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="L86" s="62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="63">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="N86" s="63">
+        <f t="shared" si="13"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O86" s="64">
+        <f t="shared" si="13"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="46">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="51">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="31">
+        <v>0</v>
+      </c>
+      <c r="E99" s="25">
+        <v>1200</v>
+      </c>
+      <c r="F99" s="25">
+        <v>1600</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2000</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" s="25">
+        <f>$F$60-B100</f>
+        <v>100</v>
+      </c>
+      <c r="D100" s="44">
+        <f>$A100/$C100</f>
+        <v>20</v>
+      </c>
+      <c r="E100" s="45">
+        <f>($A100+E$62)/$C100</f>
+        <v>32</v>
+      </c>
+      <c r="F100" s="45">
+        <f t="shared" ref="F100:G102" si="24">($A100+F$62)/$C100</f>
+        <v>36</v>
+      </c>
+      <c r="G100" s="46">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>120</v>
+      </c>
+      <c r="C101" s="25">
+        <f t="shared" ref="C101:C102" si="25">$F$60-B101</f>
+        <v>80</v>
+      </c>
+      <c r="D101" s="47">
+        <f t="shared" ref="D101:D102" si="26">$A101/$C101</f>
+        <v>25</v>
+      </c>
+      <c r="E101" s="25">
+        <f t="shared" ref="E101:E102" si="27">($A101+E$62)/$C101</f>
+        <v>40</v>
+      </c>
+      <c r="F101" s="25">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="G101" s="48">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B102" s="4">
+        <v>150</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="D102" s="47">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="E102" s="25">
+        <f t="shared" si="27"/>
+        <v>64</v>
+      </c>
+      <c r="F102" s="25">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="G102" s="48">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>800</v>
+      </c>
+      <c r="B105" s="6">
+        <f>B100+($B$95*$F$60)</f>
+        <v>130</v>
+      </c>
+      <c r="C105" s="6">
+        <f>F60-$B$105</f>
+        <v>70</v>
+      </c>
+      <c r="D105" s="31">
+        <f>A105/C105</f>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>800</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:B107" si="28">B101+($B$95*$F$60)</f>
+        <v>150</v>
+      </c>
+      <c r="C106" s="25">
+        <f>$F$60-B106</f>
+        <v>50</v>
+      </c>
+      <c r="D106" s="31">
+        <f t="shared" ref="D106:D107" si="29">A106/C106</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>800</v>
+      </c>
+      <c r="B107" s="4">
+        <f t="shared" si="28"/>
+        <v>180</v>
+      </c>
+      <c r="C107" s="4">
+        <f>$F$60-B107</f>
+        <v>20</v>
+      </c>
+      <c r="D107" s="31">
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>0</v>
+      </c>
+      <c r="B110" s="6">
+        <f>B100+($B$97*$F$60)</f>
+        <v>150</v>
+      </c>
+      <c r="C110" s="6">
+        <f>$F$60-B110</f>
+        <v>50</v>
+      </c>
+      <c r="D110" s="31">
+        <f t="shared" ref="D110:D112" si="30">A110/C110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111:B112" si="31">B101+($B$97*$F$60)</f>
+        <v>170</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:C112" si="32">$F$60-B111</f>
+        <v>30</v>
+      </c>
+      <c r="D111" s="31">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>0</v>
+      </c>
+      <c r="B112" s="4">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="31" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/S3/Decisions&Uncertainty.xlsx
+++ b/S3/Decisions&Uncertainty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurmorris/ACCT3210/S3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E01FBC-881F-4A4A-AFD9-941216C9C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FF259C-89D4-0D4E-9809-8DF62666515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" activeTab="1" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CVP" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,7 @@
     <sheet name="L1" sheetId="2" r:id="rId3"/>
     <sheet name="L3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="124">
   <si>
     <t>What is contribution margin? Why do we care?</t>
   </si>
@@ -376,9 +373,6 @@
     <t>Volume required to sell at</t>
   </si>
   <si>
-    <t>to Earn these target revenues:</t>
-  </si>
-  <si>
     <t>shock:</t>
   </si>
   <si>
@@ -407,39 +401,6 @@
   </si>
   <si>
     <t>MOS%</t>
-  </si>
-  <si>
-    <t>Alternative FC-VC Structures:</t>
-  </si>
-  <si>
-    <t>Three Rental Agreements:</t>
-  </si>
-  <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Booth</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  15% of R</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  25% of R</t>
-  </si>
-  <si>
-    <t>Option 1:</t>
-  </si>
-  <si>
-    <t>Option 2:</t>
-  </si>
-  <si>
-    <t>Option 3:</t>
   </si>
   <si>
     <t>Revenue required to sell at</t>
@@ -605,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -797,42 +758,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -866,7 +798,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -884,9 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -895,6 +823,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3376,279 +3309,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="L2"/>
-      <sheetName val="L1"/>
-      <sheetName val="L3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="23">
-          <cell r="B23">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="25">
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>5</v>
-          </cell>
-          <cell r="D25">
-            <v>10</v>
-          </cell>
-          <cell r="E25">
-            <v>15</v>
-          </cell>
-          <cell r="F25">
-            <v>20</v>
-          </cell>
-          <cell r="G25">
-            <v>25</v>
-          </cell>
-          <cell r="H25">
-            <v>30</v>
-          </cell>
-          <cell r="I25">
-            <v>35</v>
-          </cell>
-          <cell r="J25">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>R</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>1000</v>
-          </cell>
-          <cell r="D26">
-            <v>2000</v>
-          </cell>
-          <cell r="E26">
-            <v>3000</v>
-          </cell>
-          <cell r="F26">
-            <v>4000</v>
-          </cell>
-          <cell r="G26">
-            <v>5000</v>
-          </cell>
-          <cell r="H26">
-            <v>6000</v>
-          </cell>
-          <cell r="I26">
-            <v>7000</v>
-          </cell>
-          <cell r="J26">
-            <v>8000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>VC</v>
-          </cell>
-          <cell r="B27">
-            <v>0</v>
-          </cell>
-          <cell r="C27">
-            <v>600</v>
-          </cell>
-          <cell r="D27">
-            <v>1200</v>
-          </cell>
-          <cell r="E27">
-            <v>1800</v>
-          </cell>
-          <cell r="F27">
-            <v>2400</v>
-          </cell>
-          <cell r="G27">
-            <v>3000</v>
-          </cell>
-          <cell r="H27">
-            <v>3600</v>
-          </cell>
-          <cell r="I27">
-            <v>4200</v>
-          </cell>
-          <cell r="J27">
-            <v>4800</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>CM</v>
-          </cell>
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>400</v>
-          </cell>
-          <cell r="D28">
-            <v>800</v>
-          </cell>
-          <cell r="E28">
-            <v>1200</v>
-          </cell>
-          <cell r="F28">
-            <v>1600</v>
-          </cell>
-          <cell r="G28">
-            <v>2000</v>
-          </cell>
-          <cell r="H28">
-            <v>2400</v>
-          </cell>
-          <cell r="I28">
-            <v>2800</v>
-          </cell>
-          <cell r="J28">
-            <v>3200</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>FC</v>
-          </cell>
-          <cell r="B29">
-            <v>2000</v>
-          </cell>
-          <cell r="C29">
-            <v>2000</v>
-          </cell>
-          <cell r="D29">
-            <v>2000</v>
-          </cell>
-          <cell r="E29">
-            <v>2000</v>
-          </cell>
-          <cell r="F29">
-            <v>2000</v>
-          </cell>
-          <cell r="G29">
-            <v>2000</v>
-          </cell>
-          <cell r="H29">
-            <v>2000</v>
-          </cell>
-          <cell r="I29">
-            <v>2000</v>
-          </cell>
-          <cell r="J29">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>OI</v>
-          </cell>
-          <cell r="B30">
-            <v>-2000</v>
-          </cell>
-          <cell r="C30">
-            <v>-1600</v>
-          </cell>
-          <cell r="D30">
-            <v>-1200</v>
-          </cell>
-          <cell r="E30">
-            <v>-800</v>
-          </cell>
-          <cell r="F30">
-            <v>-400</v>
-          </cell>
-          <cell r="G30">
-            <v>0</v>
-          </cell>
-          <cell r="H30">
-            <v>400</v>
-          </cell>
-          <cell r="I30">
-            <v>800</v>
-          </cell>
-          <cell r="J30">
-            <v>1200</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Rev</v>
-          </cell>
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-          <cell r="C51">
-            <v>700000</v>
-          </cell>
-          <cell r="D51">
-            <v>1400000</v>
-          </cell>
-          <cell r="E51">
-            <v>2100000</v>
-          </cell>
-          <cell r="F51">
-            <v>2800000</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>TC</v>
-          </cell>
-          <cell r="B52">
-            <v>160000</v>
-          </cell>
-          <cell r="C52">
-            <v>760000</v>
-          </cell>
-          <cell r="D52">
-            <v>1360000</v>
-          </cell>
-          <cell r="E52">
-            <v>1960000</v>
-          </cell>
-          <cell r="F52">
-            <v>2560000</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>OI</v>
-          </cell>
-          <cell r="B53">
-            <v>-160000</v>
-          </cell>
-          <cell r="C53">
-            <v>-60000</v>
-          </cell>
-          <cell r="D53">
-            <v>40000</v>
-          </cell>
-          <cell r="E53">
-            <v>140000</v>
-          </cell>
-          <cell r="F53">
-            <v>240000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3963,31 +3623,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3999,25 +3659,25 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>120</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4027,13 +3687,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>40</v>
       </c>
     </row>
@@ -4051,14 +3711,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>B12*$B$7</f>
         <v>600</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>C12*$B$7</f>
         <v>4800</v>
       </c>
@@ -4077,29 +3737,29 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f>B15/B12</f>
         <v>80</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f>E6-B7</f>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4113,39 +3773,39 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
         <v>5</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>10</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>15</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>20</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>25</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>30</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>35</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>40</v>
       </c>
     </row>
@@ -4173,7 +3833,7 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -4191,48 +3851,48 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f>B25*$B$7</f>
         <v>0</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>C25*$B$7</f>
         <v>600</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f>D25*$B$7</f>
         <v>1200</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" ref="E27:I27" si="1">E25*$B$7</f>
         <v>1800</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f>J25*$B$7</f>
         <v>4800</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B28">
@@ -4255,7 +3915,7 @@
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
@@ -4273,42 +3933,42 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f>$B$6</f>
         <v>2000</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" ref="C29:I29" si="3">$B$6</f>
         <v>2000</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f>$B$6</f>
         <v>2000</v>
       </c>
@@ -4337,57 +3997,57 @@
         <f t="shared" si="4"/>
         <v>-400</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <f>J28-J29</f>
         <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="11">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
         <v>5</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>10</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>15</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>20</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>30</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <v>35</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>40</v>
       </c>
     </row>
@@ -4415,7 +4075,7 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
@@ -4456,7 +4116,7 @@
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
@@ -4497,7 +4157,7 @@
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -4515,42 +4175,42 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f>$B$6</f>
         <v>2000</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" ref="C38:J38" si="8">$B$6</f>
         <v>2000</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
@@ -4579,7 +4239,7 @@
         <f t="shared" si="9"/>
         <v>-400</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4597,31 +4257,31 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>700</v>
       </c>
     </row>
@@ -4629,35 +4289,35 @@
       <c r="A47" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>160000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
         <v>1000</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>2000</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>3000</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>4000</v>
       </c>
       <c r="G50">
@@ -4694,30 +4354,30 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <f>B50*$B$47+$B$48</f>
         <v>160000</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <f>(C50*$B$47)+$B$48</f>
         <v>760000</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <f>(D50*$B$47)+$B$48</f>
         <v>1360000</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f>(E50*$B$47)+$B$48</f>
         <v>1960000</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <f>(F50*$B$47)+$B$48</f>
         <v>2560000</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <f>(G50*$B$47)+$B$48</f>
         <v>1120000</v>
       </c>
@@ -4762,7 +4422,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4802,10 +4462,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4831,22 +4491,22 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <f>(B71)/B72</f>
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4872,21 +4532,21 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <f>(B78)/B79</f>
         <v>5000</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4930,10 +4590,10 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <f>(B89+B88)/B90</f>
         <v>40</v>
       </c>
@@ -4968,10 +4628,10 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="12">
         <f>(B95+B94)/B96</f>
         <v>8000</v>
       </c>
@@ -4987,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2BEC5-7E48-9B4F-AE1F-5C5F83C75650}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5002,65 +4662,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>40</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2000</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>120</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5097,16 +4757,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5128,18 +4788,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>$B$10*$B$5</f>
         <v>4800</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>$B$11*$B$5</f>
         <v>5280</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>C15-B15</f>
         <v>480</v>
       </c>
@@ -5173,35 +4833,35 @@
         <f>$B$4+$B$9</f>
         <v>2500</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>C17-B17</f>
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>B16-B17</f>
         <v>1200</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f>C16-C17</f>
         <v>1020</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <f>C18-B18</f>
         <v>-180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5233,16 +4893,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5264,14 +4924,14 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>$B$10*$B$5</f>
         <v>4800</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>$B$25*$B$26</f>
         <v>5750</v>
       </c>
@@ -5281,41 +4941,41 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <f>B29-B30</f>
         <v>3200</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <f>C29-C30</f>
         <v>3000</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f>$B$4</f>
         <v>2000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f>$B$4</f>
         <v>2000</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B33">
@@ -5323,16 +4983,16 @@
         <v>1200</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="1">C31-C32</f>
+        <f t="shared" ref="C33" si="1">C31-C32</f>
         <v>1000</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <f>C33-B33</f>
         <v>-200</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5346,16 +5006,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5377,27 +5037,27 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f>$B$25*$B$26</f>
         <v>5750</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>B36*B26</f>
         <v>6325.0000000000009</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f t="shared" ref="D39:D42" si="2">C39-B39</f>
         <v>575.00000000000091</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <f>B38-B39</f>
         <v>3000</v>
       </c>
@@ -5411,18 +5071,18 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f>$B$4</f>
         <v>2000</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f>B4+B9</f>
         <v>2500</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
@@ -5445,7 +5105,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5468,15 +5128,15 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B50">
@@ -5488,15 +5148,15 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B52">
@@ -5505,15 +5165,15 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B54">
@@ -5522,7 +5182,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5533,70 +5193,70 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>20</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="30" t="s">
         <v>98</v>
       </c>
       <c r="F60">
         <v>200</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D61" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="33">
-        <v>0</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="D61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="32">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
         <v>1200</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>1600</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="33">
         <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="27">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="26">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>2000</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -5606,40 +5266,40 @@
         <f>B64-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C63" s="25">
-        <f>$F$60-B63</f>
+      <c r="C63" s="24">
+        <f t="shared" ref="C63:C71" si="3">$F$60-B63</f>
         <v>100</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <f>($A63+D$62)/$C63</f>
         <v>20</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <f>($A63+E$62)/$C63</f>
         <v>32</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <f>($A63+F$62)/$C63</f>
         <v>36</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <f>($A63+G$62)/$C63</f>
         <v>40</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="27">
         <f>$F$60*D63</f>
         <v>4000</v>
       </c>
-      <c r="I63" s="28">
-        <f t="shared" ref="I63:K63" si="3">$F$60*E63</f>
+      <c r="I63" s="27">
+        <f t="shared" ref="I63:K63" si="4">$F$60*E63</f>
         <v>6400</v>
       </c>
-      <c r="J63" s="28">
-        <f t="shared" si="3"/>
+      <c r="J63" s="27">
+        <f t="shared" si="4"/>
         <v>7200</v>
       </c>
-      <c r="K63" s="28">
-        <f t="shared" si="3"/>
+      <c r="K63" s="27">
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
     </row>
@@ -5650,84 +5310,84 @@
       <c r="B64">
         <v>120</v>
       </c>
-      <c r="C64" s="25">
-        <f>$F$60-B64</f>
+      <c r="C64" s="24">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="D64" s="31">
-        <f>($A64+D$62)/$C64</f>
+      <c r="D64" s="30">
+        <f t="shared" ref="D64:D71" si="5">($A64+D$62)/$C64</f>
         <v>25</v>
       </c>
-      <c r="E64" s="25">
-        <f t="shared" ref="E64:G71" si="4">($A64+E$62)/$C64</f>
+      <c r="E64" s="24">
+        <f t="shared" ref="E64:G71" si="6">($A64+E$62)/$C64</f>
         <v>40</v>
       </c>
-      <c r="F64" s="25">
-        <f t="shared" si="4"/>
+      <c r="F64" s="24">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="G64" s="8">
-        <f t="shared" si="4"/>
+      <c r="G64" s="7">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="H64" s="28">
-        <f t="shared" ref="H64:H71" si="5">$F$60*D64</f>
+      <c r="H64" s="27">
+        <f t="shared" ref="H64:H71" si="7">$F$60*D64</f>
         <v>5000</v>
       </c>
-      <c r="I64" s="28">
-        <f t="shared" ref="I64:I71" si="6">$F$60*E64</f>
+      <c r="I64" s="27">
+        <f t="shared" ref="I64:I71" si="8">$F$60*E64</f>
         <v>8000</v>
       </c>
-      <c r="J64" s="28">
-        <f t="shared" ref="J64:J71" si="7">$F$60*F64</f>
+      <c r="J64" s="27">
+        <f t="shared" ref="J64:J71" si="9">$F$60*F64</f>
         <v>9000</v>
       </c>
-      <c r="K64" s="28">
-        <f t="shared" ref="K64:K71" si="8">$F$60*G64</f>
+      <c r="K64" s="27">
+        <f t="shared" ref="K64:K71" si="10">$F$60*G64</f>
         <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>2000</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>150</v>
       </c>
-      <c r="C65" s="4">
-        <f>$F$60-B65</f>
+      <c r="C65" s="3">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="D65" s="27">
-        <f>($A65+D$62)/$C65</f>
+      <c r="D65" s="26">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="E65" s="4">
-        <f t="shared" si="4"/>
+      <c r="E65" s="3">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="F65" s="4">
-        <f t="shared" si="4"/>
+      <c r="F65" s="3">
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="G65" s="5">
-        <f t="shared" si="4"/>
+      <c r="G65" s="4">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="H65" s="30">
-        <f t="shared" si="5"/>
+      <c r="H65" s="29">
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="I65" s="30">
-        <f t="shared" si="6"/>
+      <c r="I65" s="29">
+        <f t="shared" si="8"/>
         <v>12800</v>
       </c>
-      <c r="J65" s="30">
-        <f t="shared" si="7"/>
+      <c r="J65" s="29">
+        <f t="shared" si="9"/>
         <v>14400</v>
       </c>
-      <c r="K65" s="30">
-        <f t="shared" si="8"/>
+      <c r="K65" s="29">
+        <f t="shared" si="10"/>
         <v>16000</v>
       </c>
     </row>
@@ -5739,40 +5399,40 @@
         <f>B67-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C66" s="25">
-        <f>$F$60-B66</f>
+      <c r="C66" s="24">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="D66" s="32">
-        <f>($A66+D$62)/$C66</f>
+      <c r="D66" s="31">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <f>($A66+E$62)/$C66</f>
         <v>36</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <f>($A66+F$62)/$C66</f>
         <v>40</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <f>($A66+G$62)/$C66</f>
         <v>44</v>
       </c>
-      <c r="H66" s="28">
-        <f t="shared" si="5"/>
+      <c r="H66" s="27">
+        <f t="shared" si="7"/>
         <v>4800</v>
       </c>
-      <c r="I66" s="28">
-        <f t="shared" si="6"/>
+      <c r="I66" s="27">
+        <f t="shared" si="8"/>
         <v>7200</v>
       </c>
-      <c r="J66" s="28">
-        <f t="shared" si="7"/>
+      <c r="J66" s="27">
+        <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-      <c r="K66" s="28">
-        <f t="shared" si="8"/>
+      <c r="K66" s="27">
+        <f t="shared" si="10"/>
         <v>8800</v>
       </c>
     </row>
@@ -5783,84 +5443,84 @@
       <c r="B67">
         <v>120</v>
       </c>
-      <c r="C67" s="25">
-        <f>$F$60-B67</f>
+      <c r="C67" s="24">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="D67" s="31">
-        <f>($A67+D$62)/$C67</f>
+      <c r="D67" s="30">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="E67" s="25">
-        <f t="shared" si="4"/>
+      <c r="E67" s="24">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="F67" s="25">
-        <f t="shared" si="4"/>
+      <c r="F67" s="24">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G67" s="8">
-        <f t="shared" si="4"/>
+      <c r="G67" s="7">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="H67" s="28">
+      <c r="H67" s="27">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="I67" s="27">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="J67" s="27">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="K67" s="27">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>2400</v>
+      </c>
+      <c r="B68" s="3">
+        <v>150</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D68" s="26">
         <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="I67" s="28">
+        <v>48</v>
+      </c>
+      <c r="E68" s="3">
         <f t="shared" si="6"/>
-        <v>9000</v>
-      </c>
-      <c r="J67" s="28">
+        <v>72</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="H68" s="29">
         <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-      <c r="K67" s="28">
+        <v>9600</v>
+      </c>
+      <c r="I68" s="29">
         <f t="shared" si="8"/>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>2400</v>
-      </c>
-      <c r="B68" s="4">
-        <v>150</v>
-      </c>
-      <c r="C68" s="4">
-        <f>$F$60-B68</f>
-        <v>50</v>
-      </c>
-      <c r="D68" s="27">
-        <f>($A68+D$62)/$C68</f>
-        <v>48</v>
-      </c>
-      <c r="E68" s="4">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="F68" s="4">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="G68" s="5">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="H68" s="30">
-        <f t="shared" si="5"/>
-        <v>9600</v>
-      </c>
-      <c r="I68" s="30">
-        <f t="shared" si="6"/>
         <v>14400</v>
       </c>
-      <c r="J68" s="30">
-        <f t="shared" si="7"/>
+      <c r="J68" s="29">
+        <f t="shared" si="9"/>
         <v>16000</v>
       </c>
-      <c r="K68" s="30">
-        <f t="shared" si="8"/>
+      <c r="K68" s="29">
+        <f t="shared" si="10"/>
         <v>17600</v>
       </c>
     </row>
@@ -5872,40 +5532,40 @@
         <f>B70-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C69" s="25">
-        <f>$F$60-B69</f>
+      <c r="C69" s="24">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="D69" s="32">
-        <f>($A69+D$62)/$C69</f>
+      <c r="D69" s="31">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <f>($A69+E$62)/$C69</f>
         <v>40</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <f>($A69+F$62)/$C69</f>
         <v>44</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <f>($A69+G$62)/$C69</f>
         <v>48</v>
       </c>
-      <c r="H69" s="28">
-        <f t="shared" si="5"/>
+      <c r="H69" s="27">
+        <f t="shared" si="7"/>
         <v>5600</v>
       </c>
-      <c r="I69" s="28">
-        <f t="shared" si="6"/>
+      <c r="I69" s="27">
+        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="J69" s="28">
-        <f t="shared" si="7"/>
+      <c r="J69" s="27">
+        <f t="shared" si="9"/>
         <v>8800</v>
       </c>
-      <c r="K69" s="28">
-        <f t="shared" si="8"/>
+      <c r="K69" s="27">
+        <f t="shared" si="10"/>
         <v>9600</v>
       </c>
     </row>
@@ -5916,184 +5576,184 @@
       <c r="B70">
         <v>120</v>
       </c>
-      <c r="C70" s="25">
-        <f>$F$60-B70</f>
+      <c r="C70" s="24">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="D70" s="31">
-        <f>($A70+D$62)/$C70</f>
+      <c r="D70" s="30">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="E70" s="25">
-        <f t="shared" si="4"/>
+      <c r="E70" s="24">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="F70" s="25">
-        <f t="shared" si="4"/>
+      <c r="F70" s="24">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G70" s="8">
-        <f t="shared" si="4"/>
+      <c r="G70" s="7">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="27">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+      <c r="I70" s="27">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="J70" s="27">
+        <f t="shared" si="9"/>
+        <v>11000</v>
+      </c>
+      <c r="K70" s="27">
+        <f t="shared" si="10"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>2800</v>
+      </c>
+      <c r="B71" s="3">
+        <v>150</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D71" s="26">
         <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
-      <c r="I70" s="28">
+        <v>56</v>
+      </c>
+      <c r="E71" s="3">
         <f t="shared" si="6"/>
-        <v>10000</v>
-      </c>
-      <c r="J70" s="28">
+        <v>80</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="H71" s="29">
         <f t="shared" si="7"/>
-        <v>11000</v>
-      </c>
-      <c r="K70" s="28">
+        <v>11200</v>
+      </c>
+      <c r="I71" s="29">
         <f t="shared" si="8"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>2800</v>
-      </c>
-      <c r="B71" s="4">
-        <v>150</v>
-      </c>
-      <c r="C71" s="4">
-        <f>$F$60-B71</f>
-        <v>50</v>
-      </c>
-      <c r="D71" s="27">
-        <f>($A71+D$62)/$C71</f>
-        <v>56</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="F71" s="4">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="G71" s="5">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="H71" s="30">
-        <f t="shared" si="5"/>
-        <v>11200</v>
-      </c>
-      <c r="I71" s="30">
-        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="J71" s="30">
-        <f t="shared" si="7"/>
+      <c r="J71" s="29">
+        <f t="shared" si="9"/>
         <v>17600</v>
       </c>
-      <c r="K71" s="30">
-        <f t="shared" si="8"/>
+      <c r="K71" s="29">
+        <f t="shared" si="10"/>
         <v>19200</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="L78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D79" s="32">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1600</v>
+      </c>
+      <c r="G79" s="33">
+        <v>2000</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9">
+        <v>1200</v>
+      </c>
+      <c r="J79" s="9">
+        <v>1600</v>
+      </c>
+      <c r="K79" s="33">
+        <v>2000</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <v>1200</v>
+      </c>
+      <c r="N79" s="9">
+        <v>1600</v>
+      </c>
+      <c r="O79" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H78" t="s">
-        <v>106</v>
-      </c>
-      <c r="L78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D79" s="33">
-        <v>0</v>
-      </c>
-      <c r="E79" s="10">
-        <v>1200</v>
-      </c>
-      <c r="F79" s="10">
-        <v>1600</v>
-      </c>
-      <c r="G79" s="34">
-        <v>2000</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
-      <c r="I79" s="10">
-        <v>1200</v>
-      </c>
-      <c r="J79" s="10">
-        <v>1600</v>
-      </c>
-      <c r="K79" s="34">
-        <v>2000</v>
-      </c>
-      <c r="L79" s="10">
-        <v>0</v>
-      </c>
-      <c r="M79" s="10">
-        <v>1200</v>
-      </c>
-      <c r="N79" s="10">
-        <v>1600</v>
-      </c>
-      <c r="O79" s="34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="10" t="s">
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -6103,56 +5763,56 @@
         <f>B82-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C81" s="25">
-        <f>$F$60-B81</f>
+      <c r="C81" s="24">
+        <f t="shared" ref="C81:C89" si="11">$F$60-B81</f>
         <v>100</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="30">
         <f>H63-$H63</f>
         <v>0</v>
       </c>
-      <c r="E81" s="31">
-        <f t="shared" ref="E81:G89" si="9">I63-$H63</f>
+      <c r="E81" s="30">
+        <f t="shared" ref="E81:G89" si="12">I63-$H63</f>
         <v>2400</v>
       </c>
-      <c r="F81" s="31">
-        <f t="shared" si="9"/>
+      <c r="F81" s="30">
+        <f t="shared" si="12"/>
         <v>3200</v>
       </c>
-      <c r="G81" s="31">
-        <f t="shared" si="9"/>
+      <c r="G81" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="H81" s="28">
+      <c r="H81" s="27">
         <f>D63-$D63</f>
         <v>0</v>
       </c>
-      <c r="I81" s="28">
-        <f t="shared" ref="I81:K89" si="10">E63-$D63</f>
+      <c r="I81" s="27">
+        <f t="shared" ref="I81:K89" si="13">E63-$D63</f>
         <v>12</v>
       </c>
-      <c r="J81" s="28">
-        <f t="shared" si="10"/>
+      <c r="J81" s="27">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K81" s="28">
-        <f t="shared" si="10"/>
+      <c r="K81" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="L81" s="28">
+      <c r="L81" s="27">
         <f>D81/H63</f>
         <v>0</v>
       </c>
-      <c r="M81" s="28">
-        <f t="shared" ref="M81:O89" si="11">E81/I63</f>
+      <c r="M81" s="27">
+        <f t="shared" ref="M81:O89" si="14">E81/I63</f>
         <v>0.375</v>
       </c>
-      <c r="N81" s="28">
-        <f t="shared" si="11"/>
+      <c r="N81" s="27">
+        <f t="shared" si="14"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O81" s="28">
-        <f t="shared" si="11"/>
+      <c r="O81" s="27">
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6163,116 +5823,116 @@
       <c r="B82">
         <v>120</v>
       </c>
-      <c r="C82" s="25">
-        <f>$F$60-B82</f>
+      <c r="C82" s="24">
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="D82" s="31">
-        <f t="shared" ref="D82:D89" si="12">H64-$H64</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="31">
-        <f t="shared" si="9"/>
+      <c r="D82" s="30">
+        <f t="shared" ref="D82:D89" si="15">H64-$H64</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="30">
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="F82" s="31">
-        <f t="shared" si="9"/>
+      <c r="F82" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="G82" s="31">
-        <f t="shared" si="9"/>
+      <c r="G82" s="30">
+        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
-      <c r="H82" s="28">
-        <f t="shared" ref="H82:H89" si="13">D64-$D64</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="28">
-        <f t="shared" si="10"/>
+      <c r="H82" s="27">
+        <f t="shared" ref="H82:H89" si="16">D64-$D64</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="27">
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="J82" s="28">
-        <f t="shared" si="10"/>
+      <c r="J82" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K82" s="28">
-        <f t="shared" si="10"/>
+      <c r="K82" s="27">
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="L82" s="28">
-        <f t="shared" ref="L82:L89" si="14">D82/H64</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="28">
+      <c r="L82" s="27">
+        <f t="shared" ref="L82:L89" si="17">D82/H64</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="27">
+        <f t="shared" si="14"/>
+        <v>0.375</v>
+      </c>
+      <c r="N82" s="27">
+        <f t="shared" si="14"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O82" s="27">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B83" s="3">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3">
         <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D83" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="30">
+        <f t="shared" si="12"/>
+        <v>4800</v>
+      </c>
+      <c r="F83" s="30">
+        <f t="shared" si="12"/>
+        <v>6400</v>
+      </c>
+      <c r="G83" s="30">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="H83" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="27">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="J83" s="27">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="K83" s="27">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L83" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="27">
+        <f t="shared" si="14"/>
         <v>0.375</v>
       </c>
-      <c r="N82" s="28">
-        <f t="shared" si="11"/>
+      <c r="N83" s="27">
+        <f t="shared" si="14"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O82" s="28">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B83" s="4">
-        <v>150</v>
-      </c>
-      <c r="C83" s="4">
-        <f>$F$60-B83</f>
-        <v>50</v>
-      </c>
-      <c r="D83" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="31">
-        <f t="shared" si="9"/>
-        <v>4800</v>
-      </c>
-      <c r="F83" s="31">
-        <f t="shared" si="9"/>
-        <v>6400</v>
-      </c>
-      <c r="G83" s="31">
-        <f t="shared" si="9"/>
-        <v>8000</v>
-      </c>
-      <c r="H83" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="28">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="J83" s="28">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="K83" s="28">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="L83" s="28">
+      <c r="O83" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="28">
-        <f t="shared" si="11"/>
-        <v>0.375</v>
-      </c>
-      <c r="N83" s="28">
-        <f t="shared" si="11"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="O83" s="28">
-        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6284,56 +5944,56 @@
         <f>B85-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C84" s="25">
-        <f>$F$60-B84</f>
+      <c r="C84" s="24">
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="D84" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="31">
+      <c r="D84" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="30">
         <f>I66-$H66</f>
         <v>2400</v>
       </c>
-      <c r="F84" s="31">
-        <f t="shared" si="9"/>
+      <c r="F84" s="30">
+        <f t="shared" si="12"/>
         <v>3200</v>
       </c>
-      <c r="G84" s="31">
-        <f t="shared" si="9"/>
+      <c r="G84" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="28">
-        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="J84" s="28">
-        <f t="shared" si="10"/>
+      <c r="J84" s="27">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K84" s="28">
-        <f t="shared" si="10"/>
+      <c r="K84" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="28">
-        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N84" s="28">
-        <f t="shared" si="11"/>
+      <c r="N84" s="27">
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
-      <c r="O84" s="28">
-        <f t="shared" si="11"/>
+      <c r="O84" s="27">
+        <f t="shared" si="14"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
@@ -6344,116 +6004,116 @@
       <c r="B85">
         <v>120</v>
       </c>
-      <c r="C85" s="25">
-        <f>$F$60-B85</f>
+      <c r="C85" s="24">
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="30">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="31">
-        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="F85" s="31">
-        <f t="shared" si="9"/>
+      <c r="F85" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="G85" s="31">
-        <f t="shared" si="9"/>
+      <c r="G85" s="30">
+        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
-      <c r="H85" s="28">
+      <c r="H85" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="28">
-        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="J85" s="28">
-        <f t="shared" si="10"/>
+      <c r="J85" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K85" s="28">
-        <f t="shared" si="10"/>
+      <c r="K85" s="27">
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="L85" s="28">
+      <c r="L85" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N85" s="27">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="O85" s="27">
+        <f t="shared" si="14"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>2400</v>
+      </c>
+      <c r="B86" s="3">
+        <v>150</v>
+      </c>
+      <c r="C86" s="3">
         <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D86" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="30">
+        <f t="shared" si="12"/>
+        <v>4800</v>
+      </c>
+      <c r="F86" s="30">
+        <f t="shared" si="12"/>
+        <v>6400</v>
+      </c>
+      <c r="G86" s="30">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="H86" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="27">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="J86" s="27">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="K86" s="27">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L86" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N85" s="28">
-        <f t="shared" si="11"/>
+      <c r="N86" s="27">
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
-      <c r="O85" s="28">
-        <f t="shared" si="11"/>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>2400</v>
-      </c>
-      <c r="B86" s="4">
-        <v>150</v>
-      </c>
-      <c r="C86" s="4">
-        <f>$F$60-B86</f>
-        <v>50</v>
-      </c>
-      <c r="D86" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="31">
-        <f t="shared" si="9"/>
-        <v>4800</v>
-      </c>
-      <c r="F86" s="31">
-        <f t="shared" si="9"/>
-        <v>6400</v>
-      </c>
-      <c r="G86" s="31">
-        <f t="shared" si="9"/>
-        <v>8000</v>
-      </c>
-      <c r="H86" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="28">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="J86" s="28">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="K86" s="28">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="L86" s="28">
+      <c r="O86" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="28">
-        <f t="shared" si="11"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N86" s="28">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
-      </c>
-      <c r="O86" s="28">
-        <f t="shared" si="11"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
@@ -6465,56 +6125,56 @@
         <f>B88-$B$60</f>
         <v>100</v>
       </c>
-      <c r="C87" s="25">
-        <f>$F$60-B87</f>
+      <c r="C87" s="24">
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="D87" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="31">
+      <c r="D87" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="30">
         <f>I69-$H69</f>
         <v>2400</v>
       </c>
-      <c r="F87" s="31">
-        <f t="shared" si="9"/>
+      <c r="F87" s="30">
+        <f t="shared" si="12"/>
         <v>3200</v>
       </c>
-      <c r="G87" s="31">
-        <f t="shared" si="9"/>
+      <c r="G87" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="H87" s="28">
+      <c r="H87" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="28">
-        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="J87" s="28">
-        <f t="shared" si="10"/>
+      <c r="J87" s="27">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K87" s="28">
-        <f t="shared" si="10"/>
+      <c r="K87" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="L87" s="28">
+      <c r="L87" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="28">
-        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
-      <c r="N87" s="28">
-        <f t="shared" si="11"/>
+      <c r="N87" s="27">
+        <f t="shared" si="14"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="O87" s="28">
-        <f t="shared" si="11"/>
+      <c r="O87" s="27">
+        <f t="shared" si="14"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -6525,526 +6185,433 @@
       <c r="B88">
         <v>120</v>
       </c>
-      <c r="C88" s="25">
-        <f>$F$60-B88</f>
+      <c r="C88" s="24">
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D88" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="30">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="31">
-        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="F88" s="31">
-        <f t="shared" si="9"/>
+      <c r="F88" s="30">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="G88" s="31">
-        <f t="shared" si="9"/>
+      <c r="G88" s="30">
+        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="28">
-        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="J88" s="28">
-        <f t="shared" si="10"/>
+      <c r="J88" s="27">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K88" s="28">
-        <f t="shared" si="10"/>
+      <c r="K88" s="27">
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="N88" s="27">
+        <f t="shared" si="14"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="O88" s="27">
+        <f t="shared" si="14"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="B89" s="3">
+        <v>150</v>
+      </c>
+      <c r="C89" s="3">
         <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D89" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="30">
+        <f t="shared" si="12"/>
+        <v>4800</v>
+      </c>
+      <c r="F89" s="30">
+        <f t="shared" si="12"/>
+        <v>6400</v>
+      </c>
+      <c r="G89" s="30">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="H89" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="27">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="J89" s="27">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="K89" s="27">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L89" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="27">
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
-      <c r="N88" s="28">
-        <f t="shared" si="11"/>
+      <c r="N89" s="27">
+        <f t="shared" si="14"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="O88" s="28">
-        <f t="shared" si="11"/>
+      <c r="O89" s="27">
+        <f t="shared" si="14"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>2800</v>
-      </c>
-      <c r="B89" s="4">
-        <v>150</v>
-      </c>
-      <c r="C89" s="4">
-        <f>$F$60-B89</f>
-        <v>50</v>
-      </c>
-      <c r="D89" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="31">
-        <f t="shared" si="9"/>
-        <v>4800</v>
-      </c>
-      <c r="F89" s="31">
-        <f t="shared" si="9"/>
-        <v>6400</v>
-      </c>
-      <c r="G89" s="31">
-        <f t="shared" si="9"/>
-        <v>8000</v>
-      </c>
-      <c r="H89" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="28">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="J89" s="28">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="K89" s="28">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="L89" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="28">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="N89" s="28">
-        <f t="shared" si="11"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O89" s="28">
-        <f t="shared" si="11"/>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
     <row r="91" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A91" s="61"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>111</v>
-      </c>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95">
-        <v>2000</v>
-      </c>
+      <c r="A95" s="62"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>114</v>
-      </c>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97">
-        <v>800</v>
-      </c>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98">
-        <v>0.15</v>
-      </c>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>116</v>
-      </c>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>117</v>
-      </c>
-      <c r="B100">
-        <v>0.25</v>
-      </c>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>118</v>
-      </c>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20">
-        <v>200</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="22">
-        <v>0</v>
-      </c>
-      <c r="E105" s="23">
-        <v>1200</v>
-      </c>
-      <c r="F105" s="23">
-        <v>1600</v>
-      </c>
-      <c r="G105" s="24">
-        <v>2000</v>
-      </c>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B106" s="20">
-        <v>100</v>
-      </c>
-      <c r="C106">
-        <f>$F$103-B106</f>
-        <v>100</v>
-      </c>
-      <c r="D106" s="32">
-        <f>($A106+D$62)/$C106</f>
-        <v>20</v>
-      </c>
-      <c r="E106" s="6">
-        <f>($A106+E$62)/$C106</f>
-        <v>32</v>
-      </c>
-      <c r="F106" s="6">
-        <f>($A106+F$62)/$C106</f>
-        <v>36</v>
-      </c>
-      <c r="G106" s="7">
-        <f>($A106+G$62)/$C106</f>
-        <v>40</v>
-      </c>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B107" s="20">
-        <v>120</v>
-      </c>
-      <c r="C107">
-        <f t="shared" ref="C107:C108" si="15">$F$103-B107</f>
-        <v>80</v>
-      </c>
-      <c r="D107" s="31">
-        <f>($A107+D$62)/$C107</f>
-        <v>25</v>
-      </c>
-      <c r="E107" s="25">
-        <f t="shared" ref="E107:G108" si="16">($A107+E$62)/$C107</f>
-        <v>40</v>
-      </c>
-      <c r="F107" s="25">
-        <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="G107" s="8">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B108" s="23">
-        <v>150</v>
-      </c>
-      <c r="C108" s="4">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="D108" s="27">
-        <f>($A108+D$62)/$C108</f>
-        <v>40</v>
-      </c>
-      <c r="E108" s="4">
-        <f t="shared" si="16"/>
-        <v>64</v>
-      </c>
-      <c r="F108" s="4">
-        <f t="shared" si="16"/>
-        <v>72</v>
-      </c>
-      <c r="G108" s="5">
-        <f t="shared" si="16"/>
-        <v>80</v>
-      </c>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20">
-        <v>200</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="22">
-        <v>0</v>
-      </c>
-      <c r="E113" s="23">
-        <v>1200</v>
-      </c>
-      <c r="F113" s="23">
-        <v>1600</v>
-      </c>
-      <c r="G113" s="24">
-        <v>2000</v>
-      </c>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>800</v>
-      </c>
-      <c r="B114">
-        <f>B106+($F$103*$B$98)</f>
-        <v>130</v>
-      </c>
-      <c r="C114">
-        <f>$F$111-B114</f>
-        <v>70</v>
-      </c>
-      <c r="D114" s="32">
-        <f>($A114+D$62)/$C114</f>
-        <v>11.428571428571429</v>
-      </c>
-      <c r="E114" s="32">
-        <f t="shared" ref="E114:G116" si="17">($A114+E$62)/$C114</f>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="F114" s="32">
-        <f t="shared" si="17"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="G114" s="32">
-        <f t="shared" si="17"/>
-        <v>40</v>
-      </c>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>800</v>
-      </c>
-      <c r="B115">
-        <f t="shared" ref="B115:B116" si="18">B107+($F$103*$B$98)</f>
-        <v>150</v>
-      </c>
-      <c r="C115">
-        <f t="shared" ref="C115:C116" si="19">$F$111-B115</f>
-        <v>50</v>
-      </c>
-      <c r="D115" s="32">
-        <f t="shared" ref="D115:D116" si="20">($A115+D$62)/$C115</f>
-        <v>16</v>
-      </c>
-      <c r="E115" s="32">
-        <f t="shared" si="17"/>
-        <v>40</v>
-      </c>
-      <c r="F115" s="32">
-        <f t="shared" si="17"/>
-        <v>48</v>
-      </c>
-      <c r="G115" s="32">
-        <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>800</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="18"/>
-        <v>180</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="D116" s="32">
-        <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="E116" s="32">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="F116" s="32">
-        <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-      <c r="G116" s="32">
-        <f t="shared" si="17"/>
-        <v>140</v>
-      </c>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20">
-        <v>200</v>
-      </c>
-      <c r="G119" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="21"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="19">
-        <v>0</v>
-      </c>
-      <c r="E121" s="37">
-        <v>1200</v>
-      </c>
-      <c r="F121" s="37">
-        <v>1600</v>
-      </c>
-      <c r="G121" s="21">
-        <v>2000</v>
-      </c>
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7053,10 +6620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08C277-972C-3D46-BA7A-89046F694847}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView topLeftCell="A71" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7068,7 +6635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7082,50 +6649,50 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2000</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>120</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7162,16 +6729,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7193,18 +6760,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>B5*B10</f>
         <v>4800</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>B11*B5</f>
         <v>5280</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f>C15-B15</f>
         <v>480</v>
       </c>
@@ -7221,7 +6788,7 @@
         <f>C14-C15</f>
         <v>3520</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <f>C16-B16</f>
         <v>320</v>
       </c>
@@ -7230,21 +6797,21 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f>B4</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>B4+B9</f>
         <v>2500</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>C17-B17</f>
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18">
@@ -7255,13 +6822,13 @@
         <f>C16-C17</f>
         <v>1020</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <f>C18-B18</f>
         <v>-180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7290,16 +6857,16 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7321,24 +6888,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <f>B10*B5</f>
         <v>4800</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>B23*B24</f>
         <v>5750</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f>C28-B28</f>
         <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B29">
@@ -7349,24 +6916,24 @@
         <f>C27-C28</f>
         <v>3000</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="37">
         <f>C29-B29</f>
         <v>-200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>B17</f>
         <v>2000</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>B4</f>
         <v>2000</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f>C30-B30</f>
         <v>0</v>
       </c>
@@ -7383,13 +6950,13 @@
         <f>C29-C30</f>
         <v>1000</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <f>C31-B31</f>
         <v>-200</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7403,16 +6970,16 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7428,13 +6995,13 @@
         <f>B34*B22</f>
         <v>9625.0000000000018</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="38">
         <f t="shared" ref="D36:D39" si="0">C36-B36</f>
         <v>875.00000000000182</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B37">
@@ -7445,41 +7012,41 @@
         <f>B34*B24</f>
         <v>6325.0000000000009</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <f t="shared" si="0"/>
         <v>575.00000000000091</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f>B36-B37</f>
         <v>3000</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <f>C36-C37</f>
         <v>3300.0000000000009</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="38">
         <f t="shared" si="0"/>
         <v>300.00000000000091</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f>B4</f>
         <v>2000</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>B4+B9</f>
         <v>2500</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="39">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -7496,13 +7063,13 @@
         <f>C38-C39</f>
         <v>800.00000000000091</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="40">
         <f>C40-B40</f>
         <v>-199.99999999999909</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7533,10 +7100,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <f>SUM(B46:B47)</f>
         <v>3200</v>
       </c>
@@ -7545,7 +7112,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B49">
@@ -7553,98 +7120,98 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <f>B48/B49</f>
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="27">
         <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <f>SUM(B50:B51)</f>
         <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="30" t="s">
         <v>98</v>
       </c>
       <c r="F55">
         <v>200</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="31" t="s">
-        <v>121</v>
+      <c r="H55" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="J55">
         <v>200</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="K56" s="8"/>
+      <c r="D56" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="52">
-        <v>0</v>
-      </c>
-      <c r="E57" s="35">
+      <c r="D57" s="50">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
         <v>1200</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="34">
         <v>1600</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="51">
         <v>2000</v>
       </c>
-      <c r="H57" s="52">
-        <v>0</v>
-      </c>
-      <c r="I57" s="35">
+      <c r="H57" s="50">
+        <v>0</v>
+      </c>
+      <c r="I57" s="34">
         <v>1200</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="34">
         <v>1600</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="51">
         <v>2000</v>
       </c>
     </row>
@@ -7659,36 +7226,36 @@
         <f>$F$55-B58</f>
         <v>100</v>
       </c>
-      <c r="D58" s="44">
-        <f>A58/(C58)</f>
+      <c r="D58" s="42">
+        <f t="shared" ref="D58:D66" si="1">A58/(C58)</f>
         <v>20</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="43">
         <f>($A58+E$57)/$C58</f>
         <v>32</v>
       </c>
-      <c r="F58" s="45">
-        <f t="shared" ref="F58:G66" si="1">($A58+F$57)/$C58</f>
+      <c r="F58" s="43">
+        <f t="shared" ref="F58:G66" si="2">($A58+F$57)/$C58</f>
         <v>36</v>
       </c>
-      <c r="G58" s="46">
-        <f t="shared" si="1"/>
+      <c r="G58" s="44">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H58" s="44">
+      <c r="H58" s="42">
         <f>$F$55*D58</f>
         <v>4000</v>
       </c>
-      <c r="I58" s="45">
-        <f t="shared" ref="I58:K66" si="2">$F$55*E58</f>
+      <c r="I58" s="43">
+        <f t="shared" ref="I58:K66" si="3">$F$55*E58</f>
         <v>6400</v>
       </c>
-      <c r="J58" s="45">
-        <f t="shared" si="2"/>
+      <c r="J58" s="43">
+        <f t="shared" si="3"/>
         <v>7200</v>
       </c>
-      <c r="K58" s="46">
-        <f t="shared" si="2"/>
+      <c r="K58" s="44">
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
     </row>
@@ -7700,83 +7267,83 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:C66" si="3">$F$55-B59</f>
+        <f t="shared" ref="C59:C66" si="4">$F$55-B59</f>
         <v>80</v>
       </c>
-      <c r="D59" s="47">
-        <f>A59/(C59)</f>
+      <c r="D59" s="45">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E59" s="25">
-        <f t="shared" ref="E59:E63" si="4">($A59+E$57)/$C59</f>
+      <c r="E59" s="24">
+        <f t="shared" ref="E59:E60" si="5">($A59+E$57)/$C59</f>
         <v>40</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="24">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G59" s="46">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H59" s="45">
+        <f t="shared" ref="H59:H66" si="6">$F$55*D59</f>
+        <v>5000</v>
+      </c>
+      <c r="I59" s="24">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="J59" s="24">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="K59" s="46">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="3">
+        <v>150</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D60" s="47">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="G59" s="48">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H59" s="47">
-        <f t="shared" ref="H59:H66" si="5">$F$55*D59</f>
-        <v>5000</v>
-      </c>
-      <c r="I59" s="25">
+        <v>40</v>
+      </c>
+      <c r="E60" s="48">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="F60" s="48">
         <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G60" s="49">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H60" s="47">
+        <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="J59" s="25">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="K59" s="48">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B60" s="4">
-        <v>150</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="I60" s="48">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="D60" s="49">
-        <f>A60/(C60)</f>
-        <v>40</v>
-      </c>
-      <c r="E60" s="50">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="F60" s="50">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G60" s="51">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H60" s="49">
-        <f t="shared" si="5"/>
-        <v>8000</v>
-      </c>
-      <c r="I60" s="50">
-        <f t="shared" si="2"/>
         <v>12800</v>
       </c>
-      <c r="J60" s="50">
-        <f t="shared" si="2"/>
+      <c r="J60" s="48">
+        <f t="shared" si="3"/>
         <v>14400</v>
       </c>
-      <c r="K60" s="51">
-        <f t="shared" si="2"/>
+      <c r="K60" s="49">
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
     </row>
@@ -7792,36 +7359,36 @@
         <f>$F$55-B61</f>
         <v>100</v>
       </c>
-      <c r="D61" s="44">
-        <f>A61/(C61)</f>
+      <c r="D61" s="42">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E61" s="45">
-        <f>($A61+E$57)/$C61</f>
+      <c r="E61" s="43">
+        <f t="shared" ref="E61:E66" si="7">($A61+E$57)/$C61</f>
         <v>36</v>
       </c>
-      <c r="F61" s="45">
-        <f t="shared" si="1"/>
+      <c r="F61" s="43">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G61" s="46">
-        <f t="shared" si="1"/>
+      <c r="G61" s="44">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="H61" s="44">
-        <f t="shared" si="5"/>
+      <c r="H61" s="42">
+        <f t="shared" si="6"/>
         <v>4800</v>
       </c>
-      <c r="I61" s="45">
-        <f t="shared" si="2"/>
+      <c r="I61" s="43">
+        <f t="shared" si="3"/>
         <v>7200</v>
       </c>
-      <c r="J61" s="45">
-        <f t="shared" si="2"/>
+      <c r="J61" s="43">
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="K61" s="46">
-        <f t="shared" si="2"/>
+      <c r="K61" s="44">
+        <f t="shared" si="3"/>
         <v>8800</v>
       </c>
     </row>
@@ -7834,84 +7401,84 @@
         <v>120</v>
       </c>
       <c r="C62">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D62" s="45">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E62" s="24">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="24">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G62" s="46">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="H62" s="45">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="I62" s="24">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="D62" s="47">
-        <f>A62/(C62)</f>
-        <v>30</v>
-      </c>
-      <c r="E62" s="25">
-        <f>($A62+E$57)/$C62</f>
-        <v>45</v>
-      </c>
-      <c r="F62" s="25">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G62" s="48">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H62" s="47">
-        <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="I62" s="25">
-        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="J62" s="25">
-        <f t="shared" si="2"/>
+      <c r="J62" s="24">
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="K62" s="48">
-        <f t="shared" si="2"/>
+      <c r="K62" s="46">
+        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <f>2400</f>
         <v>2400</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>150</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D63" s="47">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E63" s="48">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="F63" s="48">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G63" s="49">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="H63" s="47">
+        <f t="shared" si="6"/>
+        <v>9600</v>
+      </c>
+      <c r="I63" s="48">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="D63" s="49">
-        <f>A63/(C63)</f>
-        <v>48</v>
-      </c>
-      <c r="E63" s="50">
-        <f>($A63+E$57)/$C63</f>
-        <v>72</v>
-      </c>
-      <c r="F63" s="50">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="G63" s="51">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="H63" s="49">
-        <f t="shared" si="5"/>
-        <v>9600</v>
-      </c>
-      <c r="I63" s="50">
-        <f t="shared" si="2"/>
         <v>14400</v>
       </c>
-      <c r="J63" s="50">
-        <f t="shared" si="2"/>
+      <c r="J63" s="48">
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="K63" s="51">
-        <f t="shared" si="2"/>
+      <c r="K63" s="49">
+        <f t="shared" si="3"/>
         <v>17600</v>
       </c>
     </row>
@@ -7926,36 +7493,36 @@
         <f>$F$55-B64</f>
         <v>100</v>
       </c>
-      <c r="D64" s="44">
-        <f>A64/(C64)</f>
+      <c r="D64" s="42">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E64" s="45">
-        <f>($A64+E$57)/$C64</f>
+      <c r="E64" s="43">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="F64" s="45">
-        <f t="shared" si="1"/>
+      <c r="F64" s="43">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G64" s="46">
-        <f t="shared" si="1"/>
+      <c r="G64" s="44">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="H64" s="44">
-        <f t="shared" si="5"/>
+      <c r="H64" s="42">
+        <f t="shared" si="6"/>
         <v>5600</v>
       </c>
-      <c r="I64" s="45">
-        <f t="shared" si="2"/>
+      <c r="I64" s="43">
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="J64" s="45">
-        <f t="shared" si="2"/>
+      <c r="J64" s="43">
+        <f t="shared" si="3"/>
         <v>8800</v>
       </c>
-      <c r="K64" s="46">
-        <f t="shared" si="2"/>
+      <c r="K64" s="44">
+        <f t="shared" si="3"/>
         <v>9600</v>
       </c>
     </row>
@@ -7967,139 +7534,139 @@
         <v>120</v>
       </c>
       <c r="C65">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D65" s="45">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E65" s="24">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="F65" s="24">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="G65" s="46">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H65" s="45">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="I65" s="24">
         <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="J65" s="24">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="K65" s="46">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="B66" s="3">
+        <v>150</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="D66" s="47">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E66" s="48">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="D65" s="47">
-        <f>A65/(C65)</f>
-        <v>35</v>
-      </c>
-      <c r="E65" s="25">
-        <f>($A65+E$57)/$C65</f>
-        <v>50</v>
-      </c>
-      <c r="F65" s="25">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="G65" s="48">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="H65" s="47">
-        <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
-      <c r="I65" s="25">
+      <c r="F66" s="48">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="J65" s="25">
+        <v>88</v>
+      </c>
+      <c r="G66" s="49">
         <f t="shared" si="2"/>
-        <v>11000</v>
-      </c>
-      <c r="K65" s="48">
-        <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>2800</v>
-      </c>
-      <c r="B66" s="4">
-        <v>150</v>
-      </c>
-      <c r="C66" s="4">
+        <v>96</v>
+      </c>
+      <c r="H66" s="47">
+        <f t="shared" si="6"/>
+        <v>11200</v>
+      </c>
+      <c r="I66" s="48">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="D66" s="49">
-        <f>A66/(C66)</f>
-        <v>56</v>
-      </c>
-      <c r="E66" s="50">
-        <f>($A66+E$57)/$C66</f>
-        <v>80</v>
-      </c>
-      <c r="F66" s="50">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="G66" s="51">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="H66" s="49">
-        <f t="shared" si="5"/>
-        <v>11200</v>
-      </c>
-      <c r="I66" s="50">
-        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="J66" s="50">
-        <f t="shared" si="2"/>
+      <c r="J66" s="48">
+        <f t="shared" si="3"/>
         <v>17600</v>
       </c>
-      <c r="K66" s="51">
-        <f t="shared" si="2"/>
+      <c r="K66" s="49">
+        <f t="shared" si="3"/>
         <v>19200</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>101</v>
+      <c r="A68" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H69" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="52">
-        <v>0</v>
-      </c>
-      <c r="E71" s="35">
+      <c r="D71" s="50">
+        <v>0</v>
+      </c>
+      <c r="E71" s="34">
         <v>1200</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="34">
         <v>1600</v>
       </c>
-      <c r="G71" s="53">
+      <c r="G71" s="51">
         <v>2000</v>
       </c>
-      <c r="H71" s="52">
-        <v>0</v>
-      </c>
-      <c r="I71" s="35">
+      <c r="H71" s="50">
+        <v>0</v>
+      </c>
+      <c r="I71" s="34">
         <v>1200</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="34">
         <v>1600</v>
       </c>
-      <c r="K71" s="53">
+      <c r="K71" s="51">
         <v>2000</v>
       </c>
     </row>
@@ -8114,36 +7681,36 @@
         <f>$F$55-B72</f>
         <v>100</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="42">
         <f>D58-$D58</f>
         <v>0</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E72" s="43">
         <f>E58-$D58</f>
         <v>12</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="43">
         <f>F58-$D58</f>
         <v>16</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="44">
         <f>G58-$D58</f>
         <v>20</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="42">
         <f>H58-$H58</f>
         <v>0</v>
       </c>
-      <c r="I72" s="45">
+      <c r="I72" s="43">
         <f>I58-$H58</f>
         <v>2400</v>
       </c>
-      <c r="J72" s="45">
-        <f t="shared" ref="J72:K72" si="6">J58-$H58</f>
+      <c r="J72" s="43">
+        <f t="shared" ref="J72:K72" si="8">J58-$H58</f>
         <v>3200</v>
       </c>
-      <c r="K72" s="46">
-        <f t="shared" si="6"/>
+      <c r="K72" s="44">
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -8155,83 +7722,83 @@
         <v>120</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C80" si="7">$F$55-B73</f>
+        <f t="shared" ref="C73:C80" si="9">$F$55-B73</f>
         <v>80</v>
       </c>
-      <c r="D73" s="47">
-        <f t="shared" ref="D73:G80" si="8">D59-$D59</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="25">
-        <f t="shared" si="8"/>
+      <c r="D73" s="45">
+        <f t="shared" ref="D73:G80" si="10">D59-$D59</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="24">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F73" s="25">
-        <f t="shared" si="8"/>
+      <c r="F73" s="24">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="46">
         <f>G59-$D59</f>
         <v>25</v>
       </c>
-      <c r="H73" s="47">
-        <f t="shared" ref="H73:K80" si="9">H59-$H59</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="25">
+      <c r="H73" s="45">
+        <f t="shared" ref="H73:K80" si="11">H59-$H59</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="24">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="J73" s="24">
+        <f t="shared" si="11"/>
+        <v>4000</v>
+      </c>
+      <c r="K73" s="46">
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B74" s="3">
+        <v>150</v>
+      </c>
+      <c r="C74" s="3">
         <f t="shared" si="9"/>
-        <v>3000</v>
-      </c>
-      <c r="J73" s="25">
-        <f t="shared" si="9"/>
-        <v>4000</v>
-      </c>
-      <c r="K73" s="48">
-        <f t="shared" si="9"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B74" s="4">
-        <v>150</v>
-      </c>
-      <c r="C74" s="4">
-        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D74" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="25">
-        <f t="shared" si="8"/>
+      <c r="D74" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="24">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="F74" s="25">
-        <f t="shared" si="8"/>
+      <c r="F74" s="24">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G74" s="46">
         <f>G60-$D60</f>
         <v>40</v>
       </c>
-      <c r="H74" s="47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="25">
-        <f t="shared" si="9"/>
+      <c r="H74" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" si="11"/>
         <v>4800</v>
       </c>
-      <c r="J74" s="25">
-        <f t="shared" si="9"/>
+      <c r="J74" s="24">
+        <f t="shared" si="11"/>
         <v>6400</v>
       </c>
-      <c r="K74" s="48">
-        <f t="shared" si="9"/>
+      <c r="K74" s="46">
+        <f t="shared" si="11"/>
         <v>8000</v>
       </c>
     </row>
@@ -8247,36 +7814,36 @@
         <f>$F$55-B75</f>
         <v>100</v>
       </c>
-      <c r="D75" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="45">
+      <c r="D75" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="43">
         <f>E61-$D61</f>
         <v>12</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="43">
         <f>F61-$D61</f>
         <v>16</v>
       </c>
-      <c r="G75" s="46">
+      <c r="G75" s="44">
         <f>G61-$D61</f>
         <v>20</v>
       </c>
-      <c r="H75" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="45">
-        <f t="shared" si="9"/>
+      <c r="H75" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="43">
+        <f t="shared" si="11"/>
         <v>2400</v>
       </c>
-      <c r="J75" s="45">
-        <f t="shared" si="9"/>
+      <c r="J75" s="43">
+        <f t="shared" si="11"/>
         <v>3200</v>
       </c>
-      <c r="K75" s="46">
-        <f t="shared" si="9"/>
+      <c r="K75" s="44">
+        <f t="shared" si="11"/>
         <v>4000</v>
       </c>
     </row>
@@ -8289,84 +7856,84 @@
         <v>120</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="D76" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="25">
-        <f t="shared" si="8"/>
+      <c r="D76" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="24">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F76" s="25">
-        <f t="shared" si="8"/>
+      <c r="F76" s="24">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="G76" s="48">
-        <f t="shared" si="8"/>
+      <c r="G76" s="46">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="H76" s="47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="25">
-        <f t="shared" si="9"/>
+      <c r="H76" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="24">
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
-      <c r="J76" s="25">
-        <f t="shared" si="9"/>
+      <c r="J76" s="24">
+        <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-      <c r="K76" s="48">
-        <f t="shared" si="9"/>
+      <c r="K76" s="46">
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <f>2400</f>
         <v>2400</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>150</v>
       </c>
-      <c r="C77" s="4">
-        <f t="shared" si="7"/>
+      <c r="C77" s="3">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="D77" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="50">
-        <f t="shared" si="8"/>
+      <c r="D77" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="48">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="F77" s="50">
-        <f t="shared" si="8"/>
+      <c r="F77" s="48">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="G77" s="51">
-        <f t="shared" si="8"/>
+      <c r="G77" s="49">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="H77" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="50">
-        <f t="shared" si="9"/>
+      <c r="H77" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="48">
+        <f t="shared" si="11"/>
         <v>4800</v>
       </c>
-      <c r="J77" s="50">
-        <f t="shared" si="9"/>
+      <c r="J77" s="48">
+        <f t="shared" si="11"/>
         <v>6400</v>
       </c>
-      <c r="K77" s="51">
-        <f t="shared" si="9"/>
+      <c r="K77" s="49">
+        <f t="shared" si="11"/>
         <v>8000</v>
       </c>
     </row>
@@ -8381,36 +7948,36 @@
         <f>$F$55-B78</f>
         <v>100</v>
       </c>
-      <c r="D78" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="25">
-        <f t="shared" si="8"/>
+      <c r="D78" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="24">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="F78" s="25">
-        <f t="shared" si="8"/>
+      <c r="F78" s="24">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="G78" s="48">
-        <f t="shared" si="8"/>
+      <c r="G78" s="46">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="H78" s="47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="25">
-        <f t="shared" si="9"/>
+      <c r="H78" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="24">
+        <f t="shared" si="11"/>
         <v>2400</v>
       </c>
-      <c r="J78" s="25">
-        <f t="shared" si="9"/>
+      <c r="J78" s="24">
+        <f t="shared" si="11"/>
         <v>3200</v>
       </c>
-      <c r="K78" s="48">
-        <f t="shared" si="9"/>
+      <c r="K78" s="46">
+        <f t="shared" si="11"/>
         <v>4000</v>
       </c>
     </row>
@@ -8422,431 +7989,91 @@
         <v>120</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="D79" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="25">
-        <f t="shared" si="8"/>
+      <c r="D79" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="24">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F79" s="25">
-        <f t="shared" si="8"/>
+      <c r="F79" s="24">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="G79" s="48">
-        <f t="shared" si="8"/>
+      <c r="G79" s="46">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="H79" s="47">
+      <c r="H79" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="24">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="J79" s="24">
+        <f t="shared" si="11"/>
+        <v>4000</v>
+      </c>
+      <c r="K79" s="46">
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2800</v>
+      </c>
+      <c r="B80" s="3">
+        <v>150</v>
+      </c>
+      <c r="C80" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="25">
-        <f t="shared" si="9"/>
-        <v>3000</v>
-      </c>
-      <c r="J79" s="25">
-        <f t="shared" si="9"/>
-        <v>4000</v>
-      </c>
-      <c r="K79" s="48">
-        <f t="shared" si="9"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>2800</v>
-      </c>
-      <c r="B80" s="4">
-        <v>150</v>
-      </c>
-      <c r="C80" s="4">
-        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D80" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="50">
-        <f t="shared" ref="E80:G80" si="10">E66-$D66</f>
+      <c r="D80" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="48">
+        <f t="shared" ref="E80:G80" si="12">E66-$D66</f>
         <v>24</v>
       </c>
-      <c r="F80" s="50">
-        <f t="shared" si="10"/>
+      <c r="F80" s="48">
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="G80" s="51">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="H80" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="50">
-        <f t="shared" si="9"/>
-        <v>4800</v>
-      </c>
-      <c r="J80" s="50">
-        <f t="shared" si="9"/>
-        <v>6400</v>
-      </c>
-      <c r="K80" s="51">
-        <f t="shared" si="9"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-    </row>
-    <row r="82" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B88" s="46">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="51">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="55">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20">
-        <v>200</v>
-      </c>
-      <c r="G94" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="21"/>
-    </row>
-    <row r="96" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="19">
-        <v>0</v>
-      </c>
-      <c r="E96" s="37">
-        <v>1200</v>
-      </c>
-      <c r="F96" s="37">
-        <v>1600</v>
-      </c>
-      <c r="G96" s="21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B97" s="20">
-        <v>100</v>
-      </c>
-      <c r="C97">
-        <f>$F$94-B97</f>
-        <v>100</v>
-      </c>
-      <c r="D97" s="44">
-        <f>A97/(C97)</f>
-        <v>20</v>
-      </c>
-      <c r="E97" s="44"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="46"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B98" s="20">
-        <v>120</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ref="C98:C99" si="11">$F$94-B98</f>
-        <v>80</v>
-      </c>
-      <c r="D98" s="47">
-        <f t="shared" ref="D98:E99" si="12">A98/(C98)</f>
-        <v>25</v>
-      </c>
-      <c r="E98" s="47"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="48"/>
-    </row>
-    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B99" s="23">
-        <v>150</v>
-      </c>
-      <c r="C99" s="4">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="D99" s="49">
+      <c r="G80" s="49">
         <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="51"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D102" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20">
-        <v>200</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D103" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
-    </row>
-    <row r="104" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="19">
-        <v>0</v>
-      </c>
-      <c r="E104" s="37">
-        <v>1200</v>
-      </c>
-      <c r="F104" s="37">
-        <v>1600</v>
-      </c>
-      <c r="G104" s="21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="20">
-        <v>800</v>
-      </c>
-      <c r="B105" s="6">
-        <f>B97+($B$89*$F$94)</f>
-        <v>130</v>
-      </c>
-      <c r="C105" s="6">
-        <f>$F$94-B105</f>
-        <v>70</v>
-      </c>
-      <c r="D105" s="44">
-        <f>A105/(C105)</f>
-        <v>11.428571428571429</v>
-      </c>
-      <c r="E105" s="44"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="20">
-        <v>800</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ref="B106:B107" si="13">B98+($B$89*$F$94)</f>
-        <v>150</v>
-      </c>
-      <c r="C106" s="25">
-        <f t="shared" ref="C106:C107" si="14">$F$94-B106</f>
-        <v>50</v>
-      </c>
-      <c r="D106" s="47">
-        <f t="shared" ref="D106:E107" si="15">A106/(C106)</f>
-        <v>16</v>
-      </c>
-      <c r="E106" s="47"/>
-    </row>
-    <row r="107" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>800</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="C107" s="4">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="D107" s="49">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="E107" s="49"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="20">
-        <v>800</v>
-      </c>
-      <c r="B113" s="6">
-        <f>B97+($B$91*$F$94)</f>
-        <v>150</v>
-      </c>
-      <c r="C113" s="6">
-        <f>$F$94-B113</f>
-        <v>50</v>
-      </c>
-      <c r="D113" s="44">
-        <f>A113/(C113)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="20">
-        <v>800</v>
-      </c>
-      <c r="B114">
-        <f t="shared" ref="B114:B115" si="16">B98+($B$91*$F$94)</f>
-        <v>170</v>
-      </c>
-      <c r="C114" s="25">
-        <f t="shared" ref="C114:C115" si="17">$F$94-B114</f>
-        <v>30</v>
-      </c>
-      <c r="D114" s="47">
-        <f t="shared" ref="D114:D115" si="18">A114/(C114)</f>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
-        <v>800</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="16"/>
-        <v>200</v>
-      </c>
-      <c r="C115" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D115" s="49" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H80" s="47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="48">
+        <f t="shared" si="11"/>
+        <v>4800</v>
+      </c>
+      <c r="J80" s="48">
+        <f t="shared" si="11"/>
+        <v>6400</v>
+      </c>
+      <c r="K80" s="49">
+        <f t="shared" si="11"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8855,10 +8082,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8F15B-0EE5-0246-9CB2-4D43FBCA02E0}">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView topLeftCell="A88" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8869,7 +8096,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8883,50 +8110,50 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2000</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>120</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8963,16 +8190,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8980,32 +8207,32 @@
       <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f>B10*E5</f>
         <v>8000</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <f>B11*E5</f>
         <v>8800</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f>C14-B14</f>
         <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>B5*B10</f>
         <v>4800</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>B11*B5</f>
         <v>5280</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <f>C15-B15</f>
         <v>480</v>
       </c>
@@ -9022,7 +8249,7 @@
         <f>C14-C15</f>
         <v>3520</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>C16-B16</f>
         <v>320</v>
       </c>
@@ -9031,21 +8258,21 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f>B4</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f>B4+B9</f>
         <v>2500</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f>C17-B17</f>
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18">
@@ -9056,18 +8283,18 @@
         <f>C16-C17</f>
         <v>1020</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <f>C18-B18</f>
         <v>-180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9096,16 +8323,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9121,13 +8348,13 @@
         <f>B25*B24</f>
         <v>8750</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" ref="D29:D33" si="0">C29-B29</f>
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B30">
@@ -9138,30 +8365,30 @@
         <f>B25*B26</f>
         <v>5750</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>B29-B30</f>
         <v>3200</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f>C29-C30</f>
         <v>3000</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32">
@@ -9172,33 +8399,33 @@
         <f>B4</f>
         <v>2000</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f>B31-B32</f>
         <v>1200</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>C31-C32</f>
         <v>1000</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="34">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9212,16 +8439,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9243,24 +8470,24 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f t="shared" ref="B39:B42" si="1">C30</f>
         <v>5750</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>B36*B26</f>
         <v>6325.0000000000009</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f>C39-B39</f>
         <v>575.00000000000091</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B40">
@@ -9271,30 +8498,30 @@
         <f>C38-C39</f>
         <v>3300.0000000000009</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
         <f t="shared" ref="D40:D42" si="2">C40-B40</f>
         <v>300.00000000000091</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f>B4+B9</f>
         <v>2500</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B42">
@@ -9305,13 +8532,13 @@
         <f>C40-C41</f>
         <v>800.00000000000091</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="34">
         <f t="shared" si="2"/>
         <v>-199.99999999999909</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9342,16 +8569,16 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <f>SUM(B48:B49)</f>
         <v>3200</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B51">
@@ -9359,93 +8586,93 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <f>B50/B51</f>
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <f>B53+B52</f>
         <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>128</v>
+      <c r="A56" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="30" t="s">
         <v>98</v>
       </c>
       <c r="F60">
         <v>200</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D61" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="8"/>
+      <c r="D61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="7"/>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="31">
-        <v>0</v>
-      </c>
-      <c r="E62" s="25">
+      <c r="D62" s="30">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
         <v>1200</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="24">
         <v>1600</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>2000</v>
       </c>
-      <c r="H62" s="31">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25">
+      <c r="H62" s="30">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
         <v>1200</v>
       </c>
-      <c r="J62" s="25">
+      <c r="J62" s="24">
         <v>1600</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="7">
         <v>2000</v>
       </c>
     </row>
@@ -9456,39 +8683,39 @@
       <c r="B63">
         <v>100</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="24">
         <f>$F$60-B63</f>
         <v>100</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="42">
         <f>$A63/$C63</f>
         <v>20</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="43">
         <f>($A63+E$62)/$C63</f>
         <v>32</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="43">
         <f t="shared" ref="F63:G71" si="3">($A63+F$62)/$C63</f>
         <v>36</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="44">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H63" s="44">
+      <c r="H63" s="42">
         <f>D63*$F$60</f>
         <v>4000</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="43">
         <f t="shared" ref="I63:I71" si="4">E63*$F$60</f>
         <v>6400</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="43">
         <f t="shared" ref="J63:J71" si="5">F63*$F$60</f>
         <v>7200</v>
       </c>
-      <c r="K63" s="46">
+      <c r="K63" s="44">
         <f t="shared" ref="K63:K71" si="6">G63*$F$60</f>
         <v>8000</v>
       </c>
@@ -9500,83 +8727,83 @@
       <c r="B64">
         <v>120</v>
       </c>
-      <c r="C64" s="25">
+      <c r="C64" s="24">
         <f t="shared" ref="C64:C71" si="7">$F$60-B64</f>
         <v>80</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="45">
         <f t="shared" ref="D64:D71" si="8">$A64/$C64</f>
         <v>25</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="24">
         <f t="shared" ref="E64:E71" si="9">($A64+E$62)/$C64</f>
         <v>40</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="24">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="46">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H64" s="47">
+      <c r="H64" s="45">
         <f t="shared" ref="H64:H71" si="10">D64*$F$60</f>
         <v>5000</v>
       </c>
-      <c r="I64" s="25">
+      <c r="I64" s="24">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J64" s="24">
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-      <c r="K64" s="48">
+      <c r="K64" s="46">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>2000</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>150</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="45">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="24">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="24">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="46">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H65" s="47">
+      <c r="H65" s="45">
         <f t="shared" si="10"/>
         <v>8000</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I65" s="24">
         <f t="shared" si="4"/>
         <v>12800</v>
       </c>
-      <c r="J65" s="25">
+      <c r="J65" s="24">
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
-      <c r="K65" s="48">
+      <c r="K65" s="46">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
@@ -9588,39 +8815,39 @@
       <c r="B66">
         <v>100</v>
       </c>
-      <c r="C66" s="25">
+      <c r="C66" s="24">
         <f>$F$60-B66</f>
         <v>100</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="42">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="43">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="43">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="44">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="42">
         <f t="shared" si="10"/>
         <v>4800</v>
       </c>
-      <c r="I66" s="45">
+      <c r="I66" s="43">
         <f t="shared" si="4"/>
         <v>7200</v>
       </c>
-      <c r="J66" s="45">
+      <c r="J66" s="43">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="K66" s="46">
+      <c r="K66" s="44">
         <f t="shared" si="6"/>
         <v>8800</v>
       </c>
@@ -9632,83 +8859,83 @@
       <c r="B67">
         <v>120</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C67" s="24">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="45">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="24">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="24">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="46">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="45">
         <f t="shared" si="10"/>
         <v>6000</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I67" s="24">
         <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J67" s="24">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K67" s="48">
+      <c r="K67" s="46">
         <f t="shared" si="6"/>
         <v>11000</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>2400</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>150</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="47">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68" s="48">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="F68" s="50">
+      <c r="F68" s="48">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="49">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H68" s="47">
         <f t="shared" si="10"/>
         <v>9600</v>
       </c>
-      <c r="I68" s="50">
+      <c r="I68" s="48">
         <f t="shared" si="4"/>
         <v>14400</v>
       </c>
-      <c r="J68" s="50">
+      <c r="J68" s="48">
         <f t="shared" si="5"/>
         <v>16000</v>
       </c>
-      <c r="K68" s="51">
+      <c r="K68" s="49">
         <f t="shared" si="6"/>
         <v>17600</v>
       </c>
@@ -9720,39 +8947,39 @@
       <c r="B69">
         <v>100</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="24">
         <f>$F$60-B69</f>
         <v>100</v>
       </c>
-      <c r="D69" s="47">
+      <c r="D69" s="45">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="24">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="24">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="46">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="45">
         <f t="shared" si="10"/>
         <v>5600</v>
       </c>
-      <c r="I69" s="25">
+      <c r="I69" s="24">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="J69" s="25">
+      <c r="J69" s="24">
         <f t="shared" si="5"/>
         <v>8800</v>
       </c>
-      <c r="K69" s="48">
+      <c r="K69" s="46">
         <f t="shared" si="6"/>
         <v>9600</v>
       </c>
@@ -9764,163 +8991,163 @@
       <c r="B70">
         <v>120</v>
       </c>
-      <c r="C70" s="25">
+      <c r="C70" s="24">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="45">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="24">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="24">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="G70" s="48">
+      <c r="G70" s="46">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="45">
         <f t="shared" si="10"/>
         <v>7000</v>
       </c>
-      <c r="I70" s="25">
+      <c r="I70" s="24">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="J70" s="25">
+      <c r="J70" s="24">
         <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-      <c r="K70" s="48">
+      <c r="K70" s="46">
         <f t="shared" si="6"/>
         <v>12000</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>2800</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>150</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="47">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="48">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="F71" s="50">
+      <c r="F71" s="48">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="49">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="47">
         <f t="shared" si="10"/>
         <v>11200</v>
       </c>
-      <c r="I71" s="50">
+      <c r="I71" s="48">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="J71" s="50">
+      <c r="J71" s="48">
         <f t="shared" si="5"/>
         <v>17600</v>
       </c>
-      <c r="K71" s="51">
+      <c r="K71" s="49">
         <f t="shared" si="6"/>
         <v>19200</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>129</v>
+      <c r="A73" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="D75" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L75" s="18" t="s">
-        <v>134</v>
+      <c r="D75" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H76" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="31">
-        <v>0</v>
-      </c>
-      <c r="E77" s="25">
+      <c r="D77" s="30">
+        <v>0</v>
+      </c>
+      <c r="E77" s="24">
         <v>1200</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F77" s="24">
         <v>1600</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>2000</v>
       </c>
-      <c r="H77" s="31">
-        <v>0</v>
-      </c>
-      <c r="I77" s="25">
+      <c r="H77" s="30">
+        <v>0</v>
+      </c>
+      <c r="I77" s="24">
         <v>1200</v>
       </c>
-      <c r="J77" s="25">
+      <c r="J77" s="24">
         <v>1600</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="7">
         <v>2000</v>
       </c>
-      <c r="L77" s="31">
-        <v>0</v>
-      </c>
-      <c r="M77" s="25">
+      <c r="L77" s="30">
+        <v>0</v>
+      </c>
+      <c r="M77" s="24">
         <v>1200</v>
       </c>
-      <c r="N77" s="25">
+      <c r="N77" s="24">
         <v>1600</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="7">
         <v>2000</v>
       </c>
     </row>
@@ -9931,55 +9158,55 @@
       <c r="B78">
         <v>100</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C78" s="24">
         <f>$F$60-B78</f>
         <v>100</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="42">
         <f>D63-$D63</f>
         <v>0</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="43">
         <f>E63-$D63</f>
         <v>12</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="43">
         <f t="shared" ref="F78:G78" si="11">F63-$D63</f>
         <v>16</v>
       </c>
-      <c r="G78" s="46">
+      <c r="G78" s="44">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="52">
         <f>H63-$H63</f>
         <v>0</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I78" s="53">
         <f t="shared" ref="I78:K78" si="12">I63-$H63</f>
         <v>2400</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="53">
         <f t="shared" si="12"/>
         <v>3200</v>
       </c>
-      <c r="K78" s="59">
+      <c r="K78" s="54">
         <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="L78" s="57">
+      <c r="L78" s="52">
         <f>H78/H63</f>
         <v>0</v>
       </c>
-      <c r="M78" s="58">
+      <c r="M78" s="53">
         <f t="shared" ref="M78:O86" si="13">I78/I63</f>
         <v>0.375</v>
       </c>
-      <c r="N78" s="58">
+      <c r="N78" s="53">
         <f t="shared" si="13"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O78" s="59">
+      <c r="O78" s="54">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
@@ -9991,115 +9218,115 @@
       <c r="B79">
         <v>120</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <f t="shared" ref="C79:C86" si="14">$F$60-B79</f>
         <v>80</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D79" s="45">
         <f t="shared" ref="D79:G86" si="15">D64-$D64</f>
         <v>0</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="24">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="F79" s="25">
+      <c r="F79" s="24">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="46">
         <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="H79" s="60">
+      <c r="H79" s="55">
         <f t="shared" ref="H79:K86" si="16">H64-$H64</f>
         <v>0</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="27">
         <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="27">
         <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="K79" s="61">
+      <c r="K79" s="56">
         <f t="shared" si="16"/>
         <v>5000</v>
       </c>
-      <c r="L79" s="60">
+      <c r="L79" s="55">
         <f t="shared" ref="L79:L86" si="17">H79/H64</f>
         <v>0</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="27">
         <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
-      <c r="N79" s="28">
+      <c r="N79" s="27">
         <f t="shared" si="13"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O79" s="61">
+      <c r="O79" s="56">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>2000</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>150</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="D80" s="47">
+      <c r="D80" s="45">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E80" s="24">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F80" s="24">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="G80" s="48">
+      <c r="G80" s="46">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="H80" s="60">
+      <c r="H80" s="55">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="27">
         <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="27">
         <f t="shared" si="16"/>
         <v>6400</v>
       </c>
-      <c r="K80" s="61">
+      <c r="K80" s="56">
         <f t="shared" si="16"/>
         <v>8000</v>
       </c>
-      <c r="L80" s="60">
+      <c r="L80" s="55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M80" s="28">
+      <c r="M80" s="27">
         <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
-      <c r="N80" s="28">
+      <c r="N80" s="27">
         <f t="shared" si="13"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O80" s="61">
+      <c r="O80" s="56">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
@@ -10111,55 +9338,55 @@
       <c r="B81">
         <v>100</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <f>$F$60-B81</f>
         <v>100</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="43">
         <f>E66-$D66</f>
         <v>12</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="43">
         <f t="shared" ref="F81:G81" si="18">F66-$D66</f>
         <v>16</v>
       </c>
-      <c r="G81" s="46">
+      <c r="G81" s="44">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="H81" s="57">
+      <c r="H81" s="52">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I81" s="58">
+      <c r="I81" s="53">
         <f t="shared" si="16"/>
         <v>2400</v>
       </c>
-      <c r="J81" s="58">
+      <c r="J81" s="53">
         <f t="shared" si="16"/>
         <v>3200</v>
       </c>
-      <c r="K81" s="59">
+      <c r="K81" s="54">
         <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="L81" s="57">
+      <c r="L81" s="52">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M81" s="58">
+      <c r="M81" s="53">
         <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N81" s="58">
+      <c r="N81" s="53">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="O81" s="59">
+      <c r="O81" s="54">
         <f t="shared" si="13"/>
         <v>0.45454545454545453</v>
       </c>
@@ -10171,115 +9398,115 @@
       <c r="B82">
         <v>120</v>
       </c>
-      <c r="C82" s="25">
+      <c r="C82" s="24">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="D82" s="47">
+      <c r="D82" s="45">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="24">
         <f t="shared" ref="E82:G82" si="19">E67-$D67</f>
         <v>15</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="24">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="G82" s="48">
+      <c r="G82" s="46">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="55">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="27">
         <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="27">
         <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="K82" s="61">
+      <c r="K82" s="56">
         <f t="shared" si="16"/>
         <v>5000</v>
       </c>
-      <c r="L82" s="60">
+      <c r="L82" s="55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M82" s="28">
+      <c r="M82" s="27">
         <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N82" s="28">
+      <c r="N82" s="27">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="O82" s="61">
+      <c r="O82" s="56">
         <f t="shared" si="13"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>2400</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>150</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E83" s="50">
+      <c r="E83" s="48">
         <f t="shared" ref="E83:G83" si="20">E68-$D68</f>
         <v>24</v>
       </c>
-      <c r="F83" s="50">
+      <c r="F83" s="48">
         <f t="shared" si="20"/>
         <v>32</v>
       </c>
-      <c r="G83" s="51">
+      <c r="G83" s="49">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="H83" s="62">
+      <c r="H83" s="57">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I83" s="63">
+      <c r="I83" s="58">
         <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="J83" s="63">
+      <c r="J83" s="58">
         <f t="shared" si="16"/>
         <v>6400</v>
       </c>
-      <c r="K83" s="64">
+      <c r="K83" s="59">
         <f t="shared" si="16"/>
         <v>8000</v>
       </c>
-      <c r="L83" s="62">
+      <c r="L83" s="57">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M83" s="63">
+      <c r="M83" s="58">
         <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N83" s="63">
+      <c r="N83" s="58">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="O83" s="64">
+      <c r="O83" s="59">
         <f t="shared" si="13"/>
         <v>0.45454545454545453</v>
       </c>
@@ -10291,55 +9518,55 @@
       <c r="B84">
         <v>100</v>
       </c>
-      <c r="C84" s="25">
+      <c r="C84" s="24">
         <f>$F$60-B84</f>
         <v>100</v>
       </c>
-      <c r="D84" s="47">
+      <c r="D84" s="45">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="24">
         <f>E69-$D69</f>
         <v>12</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F84" s="24">
         <f t="shared" ref="F84:G84" si="21">F69-$D69</f>
         <v>16</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G84" s="46">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="55">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="27">
         <f t="shared" si="16"/>
         <v>2400</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="27">
         <f t="shared" si="16"/>
         <v>3200</v>
       </c>
-      <c r="K84" s="61">
+      <c r="K84" s="56">
         <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="L84" s="60">
+      <c r="L84" s="55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M84" s="28">
+      <c r="M84" s="27">
         <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
-      <c r="N84" s="28">
+      <c r="N84" s="27">
         <f t="shared" si="13"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="O84" s="61">
+      <c r="O84" s="56">
         <f t="shared" si="13"/>
         <v>0.41666666666666669</v>
       </c>
@@ -10351,399 +9578,378 @@
       <c r="B85">
         <v>120</v>
       </c>
-      <c r="C85" s="25">
+      <c r="C85" s="24">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D85" s="45">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="24">
         <f t="shared" ref="E85:G85" si="22">E70-$D70</f>
         <v>15</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F85" s="24">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="G85" s="48">
+      <c r="G85" s="46">
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="55">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="27">
         <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="27">
         <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="K85" s="61">
+      <c r="K85" s="56">
         <f t="shared" si="16"/>
         <v>5000</v>
       </c>
-      <c r="L85" s="60">
+      <c r="L85" s="55">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="27">
         <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
-      <c r="N85" s="28">
+      <c r="N85" s="27">
         <f t="shared" si="13"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="O85" s="61">
+      <c r="O85" s="56">
         <f t="shared" si="13"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>2800</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>150</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E86" s="48">
         <f t="shared" ref="E86:G86" si="23">E71-$D71</f>
         <v>24</v>
       </c>
-      <c r="F86" s="50">
+      <c r="F86" s="48">
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-      <c r="G86" s="51">
+      <c r="G86" s="49">
         <f t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="H86" s="62">
+      <c r="H86" s="57">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I86" s="63">
+      <c r="I86" s="58">
         <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="J86" s="63">
+      <c r="J86" s="58">
         <f t="shared" si="16"/>
         <v>6400</v>
       </c>
-      <c r="K86" s="64">
+      <c r="K86" s="59">
         <f t="shared" si="16"/>
         <v>8000</v>
       </c>
-      <c r="L86" s="62">
+      <c r="L86" s="57">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M86" s="63">
+      <c r="M86" s="58">
         <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
-      <c r="N86" s="63">
+      <c r="N86" s="58">
         <f t="shared" si="13"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="O86" s="64">
+      <c r="O86" s="59">
         <f t="shared" si="13"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A88" s="61"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>114</v>
-      </c>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="62"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="46">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" s="51">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="55">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="31">
-        <v>0</v>
-      </c>
-      <c r="E99" s="25">
-        <v>1200</v>
-      </c>
-      <c r="F99" s="25">
-        <v>1600</v>
-      </c>
-      <c r="G99" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2000</v>
-      </c>
-      <c r="B100">
-        <v>100</v>
-      </c>
-      <c r="C100" s="25">
-        <f>$F$60-B100</f>
-        <v>100</v>
-      </c>
-      <c r="D100" s="44">
-        <f>$A100/$C100</f>
-        <v>20</v>
-      </c>
-      <c r="E100" s="45">
-        <f>($A100+E$62)/$C100</f>
-        <v>32</v>
-      </c>
-      <c r="F100" s="45">
-        <f t="shared" ref="F100:G102" si="24">($A100+F$62)/$C100</f>
-        <v>36</v>
-      </c>
-      <c r="G100" s="46">
-        <f t="shared" si="24"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2000</v>
-      </c>
-      <c r="B101">
-        <v>120</v>
-      </c>
-      <c r="C101" s="25">
-        <f t="shared" ref="C101:C102" si="25">$F$60-B101</f>
-        <v>80</v>
-      </c>
-      <c r="D101" s="47">
-        <f t="shared" ref="D101:D102" si="26">$A101/$C101</f>
-        <v>25</v>
-      </c>
-      <c r="E101" s="25">
-        <f t="shared" ref="E101:E102" si="27">($A101+E$62)/$C101</f>
-        <v>40</v>
-      </c>
-      <c r="F101" s="25">
-        <f t="shared" si="24"/>
-        <v>45</v>
-      </c>
-      <c r="G101" s="48">
-        <f t="shared" si="24"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B102" s="4">
-        <v>150</v>
-      </c>
-      <c r="C102" s="4">
-        <f t="shared" si="25"/>
-        <v>50</v>
-      </c>
-      <c r="D102" s="47">
-        <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="E102" s="25">
-        <f t="shared" si="27"/>
-        <v>64</v>
-      </c>
-      <c r="F102" s="25">
-        <f t="shared" si="24"/>
-        <v>72</v>
-      </c>
-      <c r="G102" s="48">
-        <f t="shared" si="24"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
-        <v>800</v>
-      </c>
-      <c r="B105" s="6">
-        <f>B100+($B$95*$F$60)</f>
-        <v>130</v>
-      </c>
-      <c r="C105" s="6">
-        <f>F60-$B$105</f>
-        <v>70</v>
-      </c>
-      <c r="D105" s="31">
-        <f>A105/C105</f>
-        <v>11.428571428571429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>800</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ref="B106:B107" si="28">B101+($B$95*$F$60)</f>
-        <v>150</v>
-      </c>
-      <c r="C106" s="25">
-        <f>$F$60-B106</f>
-        <v>50</v>
-      </c>
-      <c r="D106" s="31">
-        <f t="shared" ref="D106:D107" si="29">A106/C106</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>800</v>
-      </c>
-      <c r="B107" s="4">
-        <f t="shared" si="28"/>
-        <v>180</v>
-      </c>
-      <c r="C107" s="4">
-        <f>$F$60-B107</f>
-        <v>20</v>
-      </c>
-      <c r="D107" s="31">
-        <f t="shared" si="29"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
-        <v>0</v>
-      </c>
-      <c r="B110" s="6">
-        <f>B100+($B$97*$F$60)</f>
-        <v>150</v>
-      </c>
-      <c r="C110" s="6">
-        <f>$F$60-B110</f>
-        <v>50</v>
-      </c>
-      <c r="D110" s="31">
-        <f t="shared" ref="D110:D112" si="30">A110/C110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111">
-        <f t="shared" ref="B111:B112" si="31">B101+($B$97*$F$60)</f>
-        <v>170</v>
-      </c>
-      <c r="C111">
-        <f t="shared" ref="C111:C112" si="32">$F$60-B111</f>
-        <v>30</v>
-      </c>
-      <c r="D111" s="31">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>0</v>
-      </c>
-      <c r="B112" s="4">
-        <f t="shared" si="31"/>
-        <v>200</v>
-      </c>
-      <c r="C112" s="4">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D112" s="31" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
